--- a/3_Component_Results/TRDBAL/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Q0</t>
   </si>
@@ -26,18 +26,6 @@
   </si>
   <si>
     <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -440,13 +428,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,308 +447,176 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2">
+        <v>0.296910370302619</v>
+      </c>
+      <c r="C2">
+        <v>0.1754560687985913</v>
+      </c>
+      <c r="D2">
+        <v>-0.7052163312650161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B3">
+        <v>0.5452301634242622</v>
+      </c>
+      <c r="C3">
+        <v>-0.7258121609517026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B4">
+        <v>-0.4982750086490569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="B5">
+        <v>-0.508650254309497</v>
+      </c>
+      <c r="C5">
+        <v>-0.1393722115166278</v>
+      </c>
+      <c r="D5">
+        <v>0.2298823080694528</v>
+      </c>
+      <c r="E5">
+        <v>-0.06402758941415204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>0.2749963716941882</v>
-      </c>
-      <c r="C2">
-        <v>0.0007453635653050898</v>
-      </c>
-      <c r="D2">
-        <v>-0.727711990397233</v>
-      </c>
-      <c r="E2">
-        <v>-0.4053449222759583</v>
-      </c>
-      <c r="F2">
-        <v>0.07876844519472317</v>
-      </c>
-      <c r="G2">
-        <v>0.1048611389806351</v>
-      </c>
-      <c r="H2">
-        <v>-0.1552225676904931</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="B6">
+        <v>-0.0339353762289353</v>
+      </c>
+      <c r="C6">
+        <v>0.009547288858323122</v>
+      </c>
+      <c r="D6">
+        <v>-0.05867037900820865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
-        <v>0.02699023786050264</v>
-      </c>
-      <c r="C3">
-        <v>-0.7433235569972557</v>
-      </c>
-      <c r="D3">
-        <v>-0.434159510610632</v>
-      </c>
-      <c r="E3">
-        <v>0.05566047034056658</v>
-      </c>
-      <c r="F3">
-        <v>0.08155257890566434</v>
-      </c>
-      <c r="G3">
-        <v>-0.1789036308478084</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="B7">
+        <v>-0.1096527662563808</v>
+      </c>
+      <c r="C7">
+        <v>-0.03295316053790909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>-0.7541282958282447</v>
-      </c>
-      <c r="C4">
-        <v>-0.446942515104608</v>
-      </c>
-      <c r="D4">
-        <v>0.04265108057528195</v>
-      </c>
-      <c r="E4">
-        <v>0.06867497332446101</v>
-      </c>
-      <c r="F4">
-        <v>-0.1918247981192008</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="B8">
+        <v>0.130614789285099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>-0.6055364869831248</v>
-      </c>
-      <c r="C5">
-        <v>0.0165082554750538</v>
-      </c>
-      <c r="D5">
-        <v>0.09958084442852994</v>
-      </c>
-      <c r="E5">
-        <v>-0.1862405721246492</v>
-      </c>
-      <c r="F5">
-        <v>0.01500857711586275</v>
-      </c>
-      <c r="G5">
-        <v>-0.4485256562944653</v>
-      </c>
-      <c r="H5">
-        <v>-0.05659134421950868</v>
-      </c>
-      <c r="I5">
-        <v>-0.1062424547910673</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="B9">
+        <v>-0.01800953835259643</v>
+      </c>
+      <c r="C9">
+        <v>-0.4080186351273937</v>
+      </c>
+      <c r="D9">
+        <v>0.05136163154806897</v>
+      </c>
+      <c r="E9">
+        <v>-0.04100627984862588</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
-        <v>-0.1031453484157905</v>
-      </c>
-      <c r="C6">
-        <v>0.07678043144010754</v>
-      </c>
-      <c r="D6">
-        <v>-0.1605943602224009</v>
-      </c>
-      <c r="E6">
-        <v>0.02109648465425498</v>
-      </c>
-      <c r="F6">
-        <v>-0.4428807164269982</v>
-      </c>
-      <c r="G6">
-        <v>-0.04898895957182464</v>
-      </c>
-      <c r="H6">
-        <v>-0.09901566560718306</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
+      <c r="B10">
+        <v>-0.3779414565765412</v>
+      </c>
+      <c r="C10">
+        <v>0.02538244381270506</v>
+      </c>
+      <c r="D10">
+        <v>-0.05959440407601985</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>0.04999013180409853</v>
-      </c>
-      <c r="C7">
-        <v>-0.1704583863474338</v>
-      </c>
-      <c r="D7">
-        <v>0.01992470376579569</v>
-      </c>
-      <c r="E7">
-        <v>-0.4474148913819265</v>
-      </c>
-      <c r="F7">
-        <v>-0.05364846434150985</v>
-      </c>
-      <c r="G7">
-        <v>-0.1033347248391876</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
+      <c r="B11">
+        <v>-0.1949799536215346</v>
+      </c>
+      <c r="C11">
+        <v>-0.1475111106699463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>-0.1648354794600824</v>
-      </c>
-      <c r="C8">
-        <v>0.01831068453059403</v>
-      </c>
-      <c r="D8">
-        <v>-0.4527309049445665</v>
-      </c>
-      <c r="E8">
-        <v>-0.0574841608559771</v>
-      </c>
-      <c r="F8">
-        <v>-0.1071387127306262</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
+      <c r="B12">
+        <v>-0.03606207031626406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>-0.009556649928343444</v>
-      </c>
-      <c r="C9">
-        <v>-0.4548373081441323</v>
-      </c>
-      <c r="D9">
-        <v>-0.04734403618248337</v>
-      </c>
-      <c r="E9">
-        <v>-0.1019673685606562</v>
-      </c>
-      <c r="F9">
-        <v>0.2147969410551881</v>
-      </c>
-      <c r="G9">
-        <v>0.09064869700574096</v>
-      </c>
-      <c r="H9">
-        <v>0.04673158852096909</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
+      <c r="B13">
+        <v>0.5654387236164853</v>
+      </c>
+      <c r="C13">
+        <v>0.01419608865183131</v>
+      </c>
+      <c r="D13">
+        <v>-0.0317060320362991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>-0.4506359398865429</v>
-      </c>
-      <c r="C10">
-        <v>-0.04302206659773932</v>
-      </c>
-      <c r="D10">
-        <v>-0.09719531608367313</v>
-      </c>
-      <c r="E10">
-        <v>0.2194785050170307</v>
-      </c>
-      <c r="F10">
-        <v>0.09530618260801896</v>
-      </c>
-      <c r="G10">
-        <v>0.05140143267172223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
+      <c r="B14">
+        <v>0.5029245468667597</v>
+      </c>
+      <c r="C14">
+        <v>0.05437575235349596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
-        <v>-0.1224264618298241</v>
-      </c>
-      <c r="C11">
-        <v>-0.1036054187981787</v>
-      </c>
-      <c r="D11">
-        <v>0.2463910962642277</v>
-      </c>
-      <c r="E11">
-        <v>0.1082383002907354</v>
-      </c>
-      <c r="F11">
-        <v>0.06427204180229069</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
+      <c r="B15">
+        <v>-0.2908456105298443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B12">
-        <v>-0.1230981318553709</v>
-      </c>
-      <c r="C12">
-        <v>0.2472505120342616</v>
-      </c>
-      <c r="D12">
-        <v>0.1179180359127861</v>
-      </c>
-      <c r="E12">
-        <v>0.07004761071717119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
-        <v>0.2317674029792284</v>
-      </c>
-      <c r="C13">
-        <v>0.1210564186103368</v>
-      </c>
-      <c r="D13">
-        <v>0.08251590102422268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>0.1669188027610958</v>
-      </c>
-      <c r="C14">
-        <v>0.08981314648924708</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15">
-        <v>0.1226265318166007</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/TRDBAL/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Q0</t>
   </si>
@@ -26,6 +26,120 @@
   </si>
   <si>
     <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>2010-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-07-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-01-01 00:00:00_diff</t>
@@ -428,13 +542,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,176 +561,1503 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
+        <v>0.3188177565692882</v>
+      </c>
+      <c r="C2">
+        <v>-0.9287549028699392</v>
+      </c>
+      <c r="D2">
+        <v>-0.2975272897211245</v>
+      </c>
+      <c r="E2">
+        <v>-0.2801298986434702</v>
+      </c>
+      <c r="F2">
+        <v>-0.04385122821649762</v>
+      </c>
+      <c r="G2">
+        <v>0.3123832252197694</v>
+      </c>
+      <c r="H2">
+        <v>-0.899104390167268</v>
+      </c>
+      <c r="I2">
+        <v>-0.7530911310740529</v>
+      </c>
+      <c r="J2">
+        <v>-0.3199170215585443</v>
+      </c>
+      <c r="K2">
+        <v>0.6598179799541961</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>-0.2354689282356912</v>
+      </c>
+      <c r="C3">
+        <v>-0.004318653117857854</v>
+      </c>
+      <c r="D3">
+        <v>0.01377124563349173</v>
+      </c>
+      <c r="E3">
+        <v>0.4577150876814629</v>
+      </c>
+      <c r="F3">
+        <v>-0.8299599686844705</v>
+      </c>
+      <c r="G3">
+        <v>-0.6493078637071943</v>
+      </c>
+      <c r="H3">
+        <v>-0.2431110801374797</v>
+      </c>
+      <c r="I3">
+        <v>0.7499840961175593</v>
+      </c>
+      <c r="J3">
+        <v>-0.04722989766727818</v>
+      </c>
+      <c r="K3">
+        <v>-0.2497611577117024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>0.08209443217122983</v>
+      </c>
+      <c r="C4">
+        <v>0.6068503057761795</v>
+      </c>
+      <c r="D4">
+        <v>-0.7910464961516314</v>
+      </c>
+      <c r="E4">
+        <v>-0.5759498189697713</v>
+      </c>
+      <c r="F4">
+        <v>-0.2066784137372542</v>
+      </c>
+      <c r="G4">
+        <v>0.8002718466995695</v>
+      </c>
+      <c r="H4">
+        <v>-0.009545700225787421</v>
+      </c>
+      <c r="I4">
+        <v>-0.2066830525998297</v>
+      </c>
+      <c r="J4">
+        <v>0.4901303165831115</v>
+      </c>
+      <c r="K4">
+        <v>-0.6087573615617309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>-0.8252322334273019</v>
+      </c>
+      <c r="C5">
+        <v>-0.6227906134261971</v>
+      </c>
+      <c r="D5">
+        <v>-0.2291742927885853</v>
+      </c>
+      <c r="E5">
+        <v>0.7720382898291839</v>
+      </c>
+      <c r="F5">
+        <v>-0.02963432407548029</v>
+      </c>
+      <c r="G5">
+        <v>-0.2291770464945849</v>
+      </c>
+      <c r="H5">
+        <v>0.4703712000808552</v>
+      </c>
+      <c r="I5">
+        <v>-0.6294736775154121</v>
+      </c>
+      <c r="J5">
+        <v>0.9704012497199561</v>
+      </c>
+      <c r="K5">
+        <v>0.0704511454919744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>-0.4423510223056532</v>
+      </c>
+      <c r="C6">
+        <v>1.016114208085266</v>
+      </c>
+      <c r="D6">
+        <v>-0.1066518985667301</v>
+      </c>
+      <c r="E6">
+        <v>-0.1502948347536792</v>
+      </c>
+      <c r="F6">
+        <v>0.4480497185500245</v>
+      </c>
+      <c r="G6">
+        <v>-0.5996263777686585</v>
+      </c>
+      <c r="H6">
+        <v>0.9679912605458911</v>
+      </c>
+      <c r="I6">
+        <v>0.08530671707058006</v>
+      </c>
+      <c r="J6">
+        <v>-0.1250856535997068</v>
+      </c>
+      <c r="K6">
+        <v>0.3806060341039147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0.1425924894418131</v>
+      </c>
+      <c r="C7">
+        <v>-0.1537635534118983</v>
+      </c>
+      <c r="D7">
+        <v>0.5400766495441605</v>
+      </c>
+      <c r="E7">
+        <v>-0.5838020347156142</v>
+      </c>
+      <c r="F7">
+        <v>1.016715428268052</v>
+      </c>
+      <c r="G7">
+        <v>0.1106199867380566</v>
+      </c>
+      <c r="H7">
+        <v>-0.08871839212213449</v>
+      </c>
+      <c r="I7">
+        <v>0.409679555752352</v>
+      </c>
+      <c r="J7">
+        <v>0.3099866297234787</v>
+      </c>
+      <c r="K7">
+        <v>-0.490446025491123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>0.2836703631208096</v>
+      </c>
+      <c r="C8">
+        <v>-0.60540848875131</v>
+      </c>
+      <c r="D8">
+        <v>0.9227131972540931</v>
+      </c>
+      <c r="E8">
+        <v>0.07976821717622479</v>
+      </c>
+      <c r="F8">
+        <v>-0.142845805802176</v>
+      </c>
+      <c r="G8">
+        <v>0.3728965593356214</v>
+      </c>
+      <c r="H8">
+        <v>0.2659968533374377</v>
+      </c>
+      <c r="I8">
+        <v>-0.5295952999735993</v>
+      </c>
+      <c r="J8">
+        <v>0.4683380388876216</v>
+      </c>
+      <c r="K8">
+        <v>0.569585353360482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>1.056545159037551</v>
+      </c>
+      <c r="C9">
+        <v>-0.0607951313960674</v>
+      </c>
+      <c r="D9">
+        <v>-0.1094032950971946</v>
+      </c>
+      <c r="E9">
+        <v>0.3251510570868188</v>
+      </c>
+      <c r="F9">
+        <v>0.2669341354022171</v>
+      </c>
+      <c r="G9">
+        <v>-0.5524111942911356</v>
+      </c>
+      <c r="H9">
+        <v>0.4592426114835124</v>
+      </c>
+      <c r="I9">
+        <v>0.5535905252086883</v>
+      </c>
+      <c r="J9">
+        <v>0.1568652954842746</v>
+      </c>
+      <c r="K9">
+        <v>-0.4447736931408749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.1277348220955801</v>
+      </c>
+      <c r="C10">
+        <v>0.07359404734288319</v>
+      </c>
+      <c r="D10">
+        <v>0.3497645682280149</v>
+      </c>
+      <c r="E10">
+        <v>-0.6359560834138577</v>
+      </c>
+      <c r="F10">
+        <v>0.4813147029659838</v>
+      </c>
+      <c r="G10">
+        <v>0.520183111993504</v>
+      </c>
+      <c r="H10">
+        <v>0.1571509000809523</v>
+      </c>
+      <c r="I10">
+        <v>-0.4627646804376423</v>
+      </c>
+      <c r="J10">
+        <v>0.3489703492737441</v>
+      </c>
+      <c r="K10">
+        <v>0.2425211963472024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>0.2313224683756314</v>
+      </c>
+      <c r="C11">
+        <v>-0.5113342710281545</v>
+      </c>
+      <c r="D11">
+        <v>0.4481410208241979</v>
+      </c>
+      <c r="E11">
+        <v>0.5638588289884621</v>
+      </c>
+      <c r="F11">
+        <v>0.1539436190835109</v>
+      </c>
+      <c r="G11">
+        <v>-0.4418582039166736</v>
+      </c>
+      <c r="H11">
+        <v>0.3556832995687395</v>
+      </c>
+      <c r="I11">
+        <v>0.2567870985253624</v>
+      </c>
+      <c r="J11">
+        <v>-0.3438282919941164</v>
+      </c>
+      <c r="K11">
+        <v>0.4564590607385475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>0.401198451965277</v>
+      </c>
+      <c r="C12">
+        <v>0.5016691676472481</v>
+      </c>
+      <c r="D12">
+        <v>0.1429240330375488</v>
+      </c>
+      <c r="E12">
+        <v>-0.4610919744592283</v>
+      </c>
+      <c r="F12">
+        <v>0.347777127326904</v>
+      </c>
+      <c r="G12">
+        <v>0.2460685784398296</v>
+      </c>
+      <c r="H12">
+        <v>-0.3519404597225473</v>
+      </c>
+      <c r="I12">
+        <v>0.4475103353061683</v>
+      </c>
+      <c r="J12">
+        <v>-0.3520262128853794</v>
+      </c>
+      <c r="K12">
+        <v>-0.4521851538735195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>0.3107942050002482</v>
+      </c>
+      <c r="C13">
+        <v>-0.5530866818048341</v>
+      </c>
+      <c r="D13">
+        <v>0.3955011814912766</v>
+      </c>
+      <c r="E13">
+        <v>0.2273195306739201</v>
+      </c>
+      <c r="F13">
+        <v>-0.33607378160863</v>
+      </c>
+      <c r="G13">
+        <v>0.4465152778812774</v>
+      </c>
+      <c r="H13">
+        <v>-0.3443954275989072</v>
+      </c>
+      <c r="I13">
+        <v>-0.4488116853223064</v>
+      </c>
+      <c r="J13">
+        <v>0.1534558947860034</v>
+      </c>
+      <c r="K13">
+        <v>0.4523400882759935</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>0.2470313638878516</v>
+      </c>
+      <c r="C14">
+        <v>0.2163381080989223</v>
+      </c>
+      <c r="D14">
+        <v>-0.382219343172656</v>
+      </c>
+      <c r="E14">
+        <v>0.4304944302162367</v>
+      </c>
+      <c r="F14">
+        <v>-0.3705746994480264</v>
+      </c>
+      <c r="G14">
+        <v>-0.4681022081216665</v>
+      </c>
+      <c r="H14">
+        <v>0.131439334814142</v>
+      </c>
+      <c r="I14">
+        <v>0.4319465141156694</v>
+      </c>
+      <c r="J14">
+        <v>1.031808078170147</v>
+      </c>
+      <c r="K14">
+        <v>0.03191678342109842</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>-0.2462179893920461</v>
+      </c>
+      <c r="C15">
+        <v>0.3663172040900395</v>
+      </c>
+      <c r="D15">
+        <v>-0.3351021754948724</v>
+      </c>
+      <c r="E15">
+        <v>-0.4781711183639557</v>
+      </c>
+      <c r="F15">
+        <v>0.1435046365503585</v>
+      </c>
+      <c r="G15">
+        <v>0.4337176428294566</v>
+      </c>
+      <c r="H15">
+        <v>1.038518832052795</v>
+      </c>
+      <c r="I15">
+        <v>0.03630862963311415</v>
+      </c>
+      <c r="J15">
+        <v>-0.1626232056058621</v>
+      </c>
+      <c r="K15">
+        <v>0.5368794473296143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>-0.4418413365634389</v>
+      </c>
+      <c r="C16">
+        <v>-0.3936008578429136</v>
+      </c>
+      <c r="D16">
+        <v>0.1172543824552139</v>
+      </c>
+      <c r="E16">
+        <v>0.4516170978989082</v>
+      </c>
+      <c r="F16">
+        <v>1.033128071548756</v>
+      </c>
+      <c r="G16">
+        <v>0.04084765064640603</v>
+      </c>
+      <c r="H16">
+        <v>-0.1630540334612161</v>
+      </c>
+      <c r="I16">
+        <v>0.538651701694054</v>
+      </c>
+      <c r="J16">
+        <v>-0.4621803273346631</v>
+      </c>
+      <c r="K16">
+        <v>0.6381931741814085</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>0.0222528249818725</v>
+      </c>
+      <c r="C17">
+        <v>0.5217671371183348</v>
+      </c>
+      <c r="D17">
+        <v>1.013425872486637</v>
+      </c>
+      <c r="E17">
+        <v>0.06182232172634722</v>
+      </c>
+      <c r="F17">
+        <v>-0.1631437522813418</v>
+      </c>
+      <c r="G17">
+        <v>0.548430282067481</v>
+      </c>
+      <c r="H17">
+        <v>-0.4573759819117101</v>
+      </c>
+      <c r="I17">
+        <v>0.6453712489913982</v>
+      </c>
+      <c r="J17">
+        <v>0.8440139177096222</v>
+      </c>
+      <c r="K17">
+        <v>2.844663378249381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0.4619507554801786</v>
+      </c>
+      <c r="C18">
+        <v>1.131714243775108</v>
+      </c>
+      <c r="D18">
+        <v>0.05355541328031196</v>
+      </c>
+      <c r="E18">
+        <v>-0.1257501323597413</v>
+      </c>
+      <c r="F18">
+        <v>0.5592900289445792</v>
+      </c>
+      <c r="G18">
+        <v>-0.4355828940054706</v>
+      </c>
+      <c r="H18">
+        <v>0.6614103179090696</v>
+      </c>
+      <c r="I18">
+        <v>0.8625945156589192</v>
+      </c>
+      <c r="J18">
+        <v>2.861971273868569</v>
+      </c>
+      <c r="K18">
+        <v>-1.968166222629193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>1.142115840863729</v>
+      </c>
+      <c r="C19">
+        <v>0.01775552553920143</v>
+      </c>
+      <c r="D19">
+        <v>-0.1289303166368079</v>
+      </c>
+      <c r="E19">
+        <v>0.5449260475529224</v>
+      </c>
+      <c r="F19">
+        <v>-0.4434798439520484</v>
+      </c>
+      <c r="G19">
+        <v>0.6509787563345349</v>
+      </c>
+      <c r="H19">
+        <v>0.8534831868870469</v>
+      </c>
+      <c r="I19">
+        <v>2.852303118725465</v>
+      </c>
+      <c r="J19">
+        <v>-1.977560137948725</v>
+      </c>
+      <c r="K19">
+        <v>-0.3813148727383923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.06387299775301862</v>
+      </c>
+      <c r="C20">
+        <v>-0.2386406015427511</v>
+      </c>
+      <c r="D20">
+        <v>0.5465345136627139</v>
+      </c>
+      <c r="E20">
+        <v>-0.4797470579698297</v>
+      </c>
+      <c r="F20">
+        <v>0.6367823013710172</v>
+      </c>
+      <c r="G20">
+        <v>0.8306775631405663</v>
+      </c>
+      <c r="H20">
+        <v>2.834005129644068</v>
+      </c>
+      <c r="I20">
+        <v>-1.997754072112217</v>
+      </c>
+      <c r="J20">
+        <v>-0.4005716910974343</v>
+      </c>
+      <c r="K20">
+        <v>-1.16405247533161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>-0.1078421804072048</v>
+      </c>
+      <c r="C21">
+        <v>0.3397949975418751</v>
+      </c>
+      <c r="D21">
+        <v>-0.4542306741715317</v>
+      </c>
+      <c r="E21">
+        <v>0.5816583664256751</v>
+      </c>
+      <c r="F21">
+        <v>0.8223513901053465</v>
+      </c>
+      <c r="G21">
+        <v>2.807365718051207</v>
+      </c>
+      <c r="H21">
+        <v>-2.01473759976219</v>
+      </c>
+      <c r="I21">
+        <v>-0.4216075371600309</v>
+      </c>
+      <c r="J21">
+        <v>-1.183065931341112</v>
+      </c>
+      <c r="K21">
+        <v>0.6574533233780103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0.3440024215356118</v>
+      </c>
+      <c r="C22">
+        <v>-0.505397739534472</v>
+      </c>
+      <c r="D22">
+        <v>0.5532833901541662</v>
+      </c>
+      <c r="E22">
+        <v>0.7803573538240896</v>
+      </c>
+      <c r="F22">
+        <v>2.77099134964296</v>
+      </c>
+      <c r="G22">
+        <v>-2.05430506035</v>
+      </c>
+      <c r="H22">
+        <v>-0.4598038986635774</v>
+      </c>
+      <c r="I22">
+        <v>-1.221998368485461</v>
+      </c>
+      <c r="J22">
+        <v>0.6188486301255489</v>
+      </c>
+      <c r="K22">
+        <v>-0.5152666351976153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>-0.5102721707895886</v>
+      </c>
+      <c r="C23">
+        <v>0.6326516053219892</v>
+      </c>
+      <c r="D23">
+        <v>0.7985937524693149</v>
+      </c>
+      <c r="E23">
+        <v>2.807118058036519</v>
+      </c>
+      <c r="F23">
+        <v>-2.028898234839301</v>
+      </c>
+      <c r="G23">
+        <v>-0.4307795834862882</v>
+      </c>
+      <c r="H23">
+        <v>-1.194904098157857</v>
+      </c>
+      <c r="I23">
+        <v>0.6466567568524096</v>
+      </c>
+      <c r="J23">
+        <v>-0.4878129493033039</v>
+      </c>
+      <c r="K23">
+        <v>0.09336427512580947</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>0.6461969787473875</v>
+      </c>
+      <c r="C24">
+        <v>0.7275511807823752</v>
+      </c>
+      <c r="D24">
+        <v>2.785131464184576</v>
+      </c>
+      <c r="E24">
+        <v>-2.059057203102057</v>
+      </c>
+      <c r="F24">
+        <v>-0.4564384297342535</v>
+      </c>
+      <c r="G24">
+        <v>-1.221203167242165</v>
+      </c>
+      <c r="H24">
+        <v>0.6207126510601733</v>
+      </c>
+      <c r="I24">
+        <v>-0.5137772550861319</v>
+      </c>
+      <c r="J24">
+        <v>0.06741581731808932</v>
+      </c>
+      <c r="K24">
+        <v>0.3717058882232228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>0.6825954437061892</v>
+      </c>
+      <c r="C25">
+        <v>2.842216327944088</v>
+      </c>
+      <c r="D25">
+        <v>-2.06720763290607</v>
+      </c>
+      <c r="E25">
+        <v>-0.4481455430995472</v>
+      </c>
+      <c r="F25">
+        <v>-1.221565938423586</v>
+      </c>
+      <c r="G25">
+        <v>0.6228314681619653</v>
+      </c>
+      <c r="H25">
+        <v>-0.5128171197394938</v>
+      </c>
+      <c r="I25">
+        <v>0.06873667286641338</v>
+      </c>
+      <c r="J25">
+        <v>0.3728708452918135</v>
+      </c>
+      <c r="K25">
+        <v>0.2157162804073426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>2.856817594215058</v>
+      </c>
+      <c r="C26">
+        <v>-2.129466984909478</v>
+      </c>
+      <c r="D26">
+        <v>-0.4619987525309457</v>
+      </c>
+      <c r="E26">
+        <v>-1.24442242888192</v>
+      </c>
+      <c r="F26">
+        <v>0.6046754036129651</v>
+      </c>
+      <c r="G26">
+        <v>-0.5319447742264044</v>
+      </c>
+      <c r="H26">
+        <v>0.05005624832826262</v>
+      </c>
+      <c r="I26">
+        <v>0.3540936505109374</v>
+      </c>
+      <c r="J26">
+        <v>0.1969796945452152</v>
+      </c>
+      <c r="K26">
+        <v>-0.01601461141597829</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>-2.06827122513597</v>
+      </c>
+      <c r="C27">
+        <v>-0.5393060524935414</v>
+      </c>
+      <c r="D27">
+        <v>-1.249190751905067</v>
+      </c>
+      <c r="E27">
+        <v>0.5847710256158286</v>
+      </c>
+      <c r="F27">
+        <v>-0.5456719516673061</v>
+      </c>
+      <c r="G27">
+        <v>0.03476476730985022</v>
+      </c>
+      <c r="H27">
+        <v>0.3393641674595405</v>
+      </c>
+      <c r="I27">
+        <v>0.1820903569841094</v>
+      </c>
+      <c r="J27">
+        <v>-0.03084990687880229</v>
+      </c>
+      <c r="K27">
+        <v>-0.7436532101788454</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>-0.8824990090114404</v>
+      </c>
+      <c r="C28">
+        <v>-1.139340039689374</v>
+      </c>
+      <c r="D28">
+        <v>0.5505853926793445</v>
+      </c>
+      <c r="E28">
+        <v>-0.5460257266306615</v>
+      </c>
+      <c r="F28">
+        <v>0.0248962717788128</v>
+      </c>
+      <c r="G28">
+        <v>0.3318622107353145</v>
+      </c>
+      <c r="H28">
+        <v>0.1739450037537966</v>
+      </c>
+      <c r="I28">
+        <v>-0.03883239097150494</v>
+      </c>
+      <c r="J28">
+        <v>-0.7516793648181012</v>
+      </c>
+      <c r="K28">
+        <v>-0.4360459003136236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>-1.661912983979511</v>
+      </c>
+      <c r="C29">
+        <v>0.717712348585835</v>
+      </c>
+      <c r="D29">
+        <v>-0.4524927510745094</v>
+      </c>
+      <c r="E29">
+        <v>0.08493137822559196</v>
+      </c>
+      <c r="F29">
+        <v>0.4026405874624847</v>
+      </c>
+      <c r="G29">
+        <v>0.2465887346014402</v>
+      </c>
+      <c r="H29">
+        <v>0.03207129724538772</v>
+      </c>
+      <c r="I29">
+        <v>-0.6804850056104548</v>
+      </c>
+      <c r="J29">
+        <v>-0.3647696098992121</v>
+      </c>
+      <c r="K29">
+        <v>0.1195727875039631</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>0.3621552303068248</v>
+      </c>
+      <c r="C30">
+        <v>-0.3400294747662294</v>
+      </c>
+      <c r="D30">
+        <v>0.1794600961820314</v>
+      </c>
+      <c r="E30">
+        <v>0.4816074644830439</v>
+      </c>
+      <c r="F30">
+        <v>0.3281215904441968</v>
+      </c>
+      <c r="G30">
+        <v>0.1141027871375559</v>
+      </c>
+      <c r="H30">
+        <v>-0.598550230251171</v>
+      </c>
+      <c r="I30">
+        <v>-0.2829226083174737</v>
+      </c>
+      <c r="J30">
+        <v>0.2014552750448657</v>
+      </c>
+      <c r="K30">
+        <v>0.2279218833267887</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>-0.1528241944177729</v>
+      </c>
+      <c r="C31">
+        <v>0.192285411370068</v>
+      </c>
+      <c r="D31">
+        <v>0.3555645473243835</v>
+      </c>
+      <c r="E31">
+        <v>0.281637439270124</v>
+      </c>
+      <c r="F31">
+        <v>0.07661480437198306</v>
+      </c>
+      <c r="G31">
+        <v>-0.6551323959666511</v>
+      </c>
+      <c r="H31">
+        <v>-0.3363989667270018</v>
+      </c>
+      <c r="I31">
+        <v>0.1510715132364001</v>
+      </c>
+      <c r="J31">
+        <v>0.1761317285981892</v>
+      </c>
+      <c r="K31">
+        <v>-0.08431581322614003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>0.1955618508866619</v>
+      </c>
+      <c r="C32">
+        <v>0.2940124728063398</v>
+      </c>
+      <c r="D32">
+        <v>0.2932814864232594</v>
+      </c>
+      <c r="E32">
+        <v>0.09873476815367339</v>
+      </c>
+      <c r="F32">
+        <v>-0.6616475957927799</v>
+      </c>
+      <c r="G32">
+        <v>-0.3394626838551869</v>
+      </c>
+      <c r="H32">
+        <v>0.1564201222179605</v>
+      </c>
+      <c r="I32">
+        <v>0.178266249373156</v>
+      </c>
+      <c r="J32">
+        <v>-0.08393940633781374</v>
+      </c>
+      <c r="K32">
+        <v>0.1187281278506455</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>0.4859366050582011</v>
+      </c>
+      <c r="C33">
+        <v>0.2527645357277814</v>
+      </c>
+      <c r="D33">
+        <v>-0.0005780809034607211</v>
+      </c>
+      <c r="E33">
+        <v>-0.6800661175023524</v>
+      </c>
+      <c r="F33">
+        <v>-0.3592061368045377</v>
+      </c>
+      <c r="G33">
+        <v>0.1134118073140826</v>
+      </c>
+      <c r="H33">
+        <v>0.1408912197714845</v>
+      </c>
+      <c r="I33">
+        <v>-0.1157727589425605</v>
+      </c>
+      <c r="J33">
+        <v>0.08400522081868537</v>
+      </c>
+      <c r="K33">
+        <v>-0.3827393144060302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
         <v>0.296910370302619</v>
       </c>
-      <c r="C2">
+      <c r="C34">
         <v>0.1754560687985913</v>
       </c>
-      <c r="D2">
+      <c r="D34">
         <v>-0.7052163312650161</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+      <c r="E34">
+        <v>-0.3817026643028616</v>
+      </c>
+      <c r="F34">
+        <v>0.1553997145213433</v>
+      </c>
+      <c r="G34">
+        <v>0.1674977960928535</v>
+      </c>
+      <c r="H34">
+        <v>-0.1065635362101564</v>
+      </c>
+      <c r="I34">
+        <v>0.1021079279493657</v>
+      </c>
+      <c r="J34">
+        <v>-0.3610106484504418</v>
+      </c>
+      <c r="K34">
+        <v>0.02833835687728319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
         <v>0.5452301634242622</v>
       </c>
-      <c r="C3">
+      <c r="C35">
         <v>-0.7258121609517026</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
+      <c r="D35">
+        <v>-0.5735341923513524</v>
+      </c>
+      <c r="E35">
+        <v>0.1407196671650178</v>
+      </c>
+      <c r="F35">
+        <v>0.1814599519470501</v>
+      </c>
+      <c r="G35">
+        <v>-0.1632513031943741</v>
+      </c>
+      <c r="H35">
+        <v>0.04869779706901605</v>
+      </c>
+      <c r="I35">
+        <v>-0.389206151961996</v>
+      </c>
+      <c r="J35">
+        <v>-0.005987546100517832</v>
+      </c>
+      <c r="K35">
+        <v>-0.06373036497251372</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
         <v>-0.4982750086490569</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
+      <c r="C36">
+        <v>-0.4247678582686685</v>
+      </c>
+      <c r="D36">
+        <v>0.03391359169615926</v>
+      </c>
+      <c r="E36">
+        <v>0.1493741791200265</v>
+      </c>
+      <c r="F36">
+        <v>-0.1197510925191332</v>
+      </c>
+      <c r="G36">
+        <v>0.05212655311200023</v>
+      </c>
+      <c r="H36">
+        <v>-0.4048358621305213</v>
+      </c>
+      <c r="I36">
+        <v>-0.004085650098749142</v>
+      </c>
+      <c r="J36">
+        <v>-0.05838528503014214</v>
+      </c>
+      <c r="K36">
+        <v>0.2567786966609284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
         <v>-0.508650254309497</v>
       </c>
-      <c r="C5">
+      <c r="C37">
         <v>-0.1393722115166278</v>
       </c>
-      <c r="D5">
+      <c r="D37">
         <v>0.2298823080694528</v>
       </c>
-      <c r="E5">
+      <c r="E37">
         <v>-0.06402758941415204</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
+      <c r="F37">
+        <v>0.0128734550610147</v>
+      </c>
+      <c r="G37">
+        <v>-0.4118543373381829</v>
+      </c>
+      <c r="H37">
+        <v>0.01890615980242083</v>
+      </c>
+      <c r="I37">
+        <v>-0.05515863131442719</v>
+      </c>
+      <c r="J37">
+        <v>0.252787469772311</v>
+      </c>
+      <c r="K37">
+        <v>0.1395984221890072</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
         <v>-0.0339353762289353</v>
       </c>
-      <c r="C6">
+      <c r="C38">
         <v>0.009547288858323122</v>
       </c>
-      <c r="D6">
+      <c r="D38">
         <v>-0.05867037900820865</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
+      <c r="E38">
+        <v>0.09141644286826343</v>
+      </c>
+      <c r="F38">
+        <v>-0.4352656540720088</v>
+      </c>
+      <c r="G38">
+        <v>-0.009515086540656081</v>
+      </c>
+      <c r="H38">
+        <v>-0.04378083892513664</v>
+      </c>
+      <c r="I38">
+        <v>0.2571867124383387</v>
+      </c>
+      <c r="J38">
+        <v>0.1304529729084137</v>
+      </c>
+      <c r="K38">
+        <v>0.09318100141914656</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
         <v>-0.1096527662563808</v>
       </c>
-      <c r="C7">
+      <c r="C39">
         <v>-0.03295316053790909</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
+      <c r="D39">
+        <v>0.151133397323389</v>
+      </c>
+      <c r="E39">
+        <v>-0.4395305265204166</v>
+      </c>
+      <c r="F39">
+        <v>-0.01522629362682212</v>
+      </c>
+      <c r="G39">
+        <v>-0.02377193271877638</v>
+      </c>
+      <c r="H39">
+        <v>0.2728401849684038</v>
+      </c>
+      <c r="I39">
+        <v>0.136721681092757</v>
+      </c>
+      <c r="J39">
+        <v>0.1030047754763971</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
         <v>0.130614789285099</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
+      <c r="C40">
+        <v>0.06904616952861972</v>
+      </c>
+      <c r="D40">
+        <v>-0.4935588452908021</v>
+      </c>
+      <c r="E40">
+        <v>0.02169177924117932</v>
+      </c>
+      <c r="F40">
+        <v>-0.01615982681018724</v>
+      </c>
+      <c r="G40">
+        <v>0.2505955177766696</v>
+      </c>
+      <c r="H40">
+        <v>0.1320086938860167</v>
+      </c>
+      <c r="I40">
+        <v>0.1064937699494305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
         <v>-0.01800953835259643</v>
       </c>
-      <c r="C9">
+      <c r="C41">
         <v>-0.4080186351273937</v>
       </c>
-      <c r="D9">
+      <c r="D41">
         <v>0.05136163154806897</v>
       </c>
-      <c r="E9">
+      <c r="E41">
         <v>-0.04100627984862588</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
+      <c r="F41">
+        <v>0.2597619993073036</v>
+      </c>
+      <c r="G41">
+        <v>0.1547253467405393</v>
+      </c>
+      <c r="H41">
+        <v>0.1129264600830181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
         <v>-0.3779414565765412</v>
       </c>
-      <c r="C10">
+      <c r="C42">
         <v>0.02538244381270506</v>
       </c>
-      <c r="D10">
+      <c r="D42">
         <v>-0.05959440407601985</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
+      <c r="E42">
+        <v>0.2610857860875664</v>
+      </c>
+      <c r="F42">
+        <v>0.1489460797320124</v>
+      </c>
+      <c r="G42">
+        <v>0.1010362671545189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
         <v>-0.1949799536215346</v>
       </c>
-      <c r="C11">
+      <c r="C43">
         <v>-0.1475111106699463</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
+      <c r="D43">
+        <v>0.3686285199142624</v>
+      </c>
+      <c r="E43">
+        <v>0.1636841116180608</v>
+      </c>
+      <c r="F43">
+        <v>0.06283620299754555</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
         <v>-0.03606207031626406</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
+      <c r="C44">
+        <v>0.2393691092794901</v>
+      </c>
+      <c r="D44">
+        <v>0.1197574460500262</v>
+      </c>
+      <c r="E44">
+        <v>0.09159169041646877</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
         <v>0.5654387236164853</v>
       </c>
-      <c r="C13">
+      <c r="C45">
         <v>0.01419608865183131</v>
       </c>
-      <c r="D13">
+      <c r="D45">
         <v>-0.0317060320362991</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
         <v>0.5029245468667597</v>
       </c>
-      <c r="C14">
+      <c r="C46">
         <v>0.05437575235349596</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
         <v>-0.2908456105298443</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/TRDBAL/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -44,6 +44,21 @@
   </si>
   <si>
     <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-10-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-04-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2010-04-01 00:00:00_diff</t>
@@ -542,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,210 +599,60 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>0.3188177565692882</v>
-      </c>
-      <c r="C2">
-        <v>-0.9287549028699392</v>
-      </c>
-      <c r="D2">
-        <v>-0.2975272897211245</v>
-      </c>
-      <c r="E2">
-        <v>-0.2801298986434702</v>
-      </c>
-      <c r="F2">
-        <v>-0.04385122821649762</v>
-      </c>
-      <c r="G2">
-        <v>0.3123832252197694</v>
-      </c>
-      <c r="H2">
-        <v>-0.899104390167268</v>
-      </c>
-      <c r="I2">
-        <v>-0.7530911310740529</v>
-      </c>
-      <c r="J2">
-        <v>-0.3199170215585443</v>
-      </c>
-      <c r="K2">
-        <v>0.6598179799541961</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>-0.2354689282356912</v>
-      </c>
-      <c r="C3">
-        <v>-0.004318653117857854</v>
-      </c>
-      <c r="D3">
-        <v>0.01377124563349173</v>
-      </c>
-      <c r="E3">
-        <v>0.4577150876814629</v>
-      </c>
-      <c r="F3">
-        <v>-0.8299599686844705</v>
-      </c>
-      <c r="G3">
-        <v>-0.6493078637071943</v>
-      </c>
-      <c r="H3">
-        <v>-0.2431110801374797</v>
-      </c>
-      <c r="I3">
-        <v>0.7499840961175593</v>
-      </c>
-      <c r="J3">
-        <v>-0.04722989766727818</v>
-      </c>
-      <c r="K3">
-        <v>-0.2497611577117024</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>0.08209443217122983</v>
-      </c>
-      <c r="C4">
-        <v>0.6068503057761795</v>
-      </c>
-      <c r="D4">
-        <v>-0.7910464961516314</v>
-      </c>
-      <c r="E4">
-        <v>-0.5759498189697713</v>
-      </c>
-      <c r="F4">
-        <v>-0.2066784137372542</v>
-      </c>
-      <c r="G4">
-        <v>0.8002718466995695</v>
-      </c>
-      <c r="H4">
-        <v>-0.009545700225787421</v>
-      </c>
-      <c r="I4">
-        <v>-0.2066830525998297</v>
-      </c>
-      <c r="J4">
-        <v>0.4901303165831115</v>
-      </c>
-      <c r="K4">
-        <v>-0.6087573615617309</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>-0.8252322334273019</v>
-      </c>
-      <c r="C5">
-        <v>-0.6227906134261971</v>
-      </c>
-      <c r="D5">
-        <v>-0.2291742927885853</v>
-      </c>
-      <c r="E5">
-        <v>0.7720382898291839</v>
-      </c>
-      <c r="F5">
-        <v>-0.02963432407548029</v>
-      </c>
-      <c r="G5">
-        <v>-0.2291770464945849</v>
-      </c>
-      <c r="H5">
-        <v>0.4703712000808552</v>
-      </c>
-      <c r="I5">
-        <v>-0.6294736775154121</v>
-      </c>
-      <c r="J5">
-        <v>0.9704012497199561</v>
-      </c>
-      <c r="K5">
-        <v>0.0704511454919744</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>-0.4423510223056532</v>
-      </c>
-      <c r="C6">
-        <v>1.016114208085266</v>
-      </c>
-      <c r="D6">
-        <v>-0.1066518985667301</v>
-      </c>
-      <c r="E6">
-        <v>-0.1502948347536792</v>
-      </c>
-      <c r="F6">
-        <v>0.4480497185500245</v>
-      </c>
-      <c r="G6">
-        <v>-0.5996263777686585</v>
-      </c>
-      <c r="H6">
-        <v>0.9679912605458911</v>
-      </c>
-      <c r="I6">
-        <v>0.08530671707058006</v>
-      </c>
-      <c r="J6">
-        <v>-0.1250856535997068</v>
-      </c>
-      <c r="K6">
-        <v>0.3806060341039147</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.1425924894418131</v>
+        <v>-0.2115600858023061</v>
       </c>
       <c r="C7">
-        <v>-0.1537635534118983</v>
+        <v>-0.6983770604983449</v>
       </c>
       <c r="D7">
-        <v>0.5400766495441605</v>
+        <v>-0.2975272897211245</v>
       </c>
       <c r="E7">
-        <v>-0.5838020347156142</v>
+        <v>-0.6801298986434701</v>
       </c>
       <c r="F7">
-        <v>1.016715428268052</v>
+        <v>-0.04385122821649786</v>
       </c>
       <c r="G7">
-        <v>0.1106199867380566</v>
+        <v>-0.1876167747802305</v>
       </c>
       <c r="H7">
-        <v>-0.08871839212213449</v>
+        <v>0.4008956098327321</v>
       </c>
       <c r="I7">
-        <v>0.409679555752352</v>
+        <v>-0.953091131074053</v>
       </c>
       <c r="J7">
-        <v>0.3099866297234787</v>
+        <v>-0.7199170215585443</v>
       </c>
       <c r="K7">
-        <v>-0.490446025491123</v>
+        <v>-0.3401820200458039</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -795,34 +660,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.2836703631208096</v>
+        <v>-0.2354689282356912</v>
       </c>
       <c r="C8">
-        <v>-0.60540848875131</v>
+        <v>-0.4043186531178578</v>
       </c>
       <c r="D8">
-        <v>0.9227131972540931</v>
+        <v>0.0137712456334915</v>
       </c>
       <c r="E8">
-        <v>0.07976821717622479</v>
+        <v>-0.04228491231853701</v>
       </c>
       <c r="F8">
-        <v>-0.142845805802176</v>
+        <v>0.4700400313155295</v>
       </c>
       <c r="G8">
-        <v>0.3728965593356214</v>
+        <v>-0.8493078637071944</v>
       </c>
       <c r="H8">
-        <v>0.2659968533374377</v>
+        <v>-0.6431110801374796</v>
       </c>
       <c r="I8">
-        <v>-0.5295952999735993</v>
+        <v>-0.2500159038824407</v>
       </c>
       <c r="J8">
-        <v>0.4683380388876216</v>
+        <v>0.7527701023327219</v>
       </c>
       <c r="K8">
-        <v>0.569585353360482</v>
+        <v>-0.04976115771170253</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -830,34 +695,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1.056545159037551</v>
+        <v>0.08209443217122959</v>
       </c>
       <c r="C9">
-        <v>-0.0607951313960674</v>
+        <v>0.1068503057761796</v>
       </c>
       <c r="D9">
-        <v>-0.1094032950971946</v>
+        <v>0.5089535038483687</v>
       </c>
       <c r="E9">
-        <v>0.3251510570868188</v>
+        <v>-0.7759498189697713</v>
       </c>
       <c r="F9">
-        <v>0.2669341354022171</v>
+        <v>-0.6066784137372541</v>
       </c>
       <c r="G9">
-        <v>-0.5524111942911356</v>
+        <v>-0.1997281533004306</v>
       </c>
       <c r="H9">
-        <v>0.4592426114835124</v>
+        <v>0.7904542997742127</v>
       </c>
       <c r="I9">
-        <v>0.5535905252086883</v>
+        <v>-0.006683052599829764</v>
       </c>
       <c r="J9">
-        <v>0.1568652954842746</v>
+        <v>-0.2098696834168884</v>
       </c>
       <c r="K9">
-        <v>-0.4447736931408749</v>
+        <v>0.4912426384382692</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -865,34 +730,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.1277348220955801</v>
+        <v>0.4747677665726981</v>
       </c>
       <c r="C10">
-        <v>0.07359404734288319</v>
+        <v>-0.8227906134261972</v>
       </c>
       <c r="D10">
-        <v>0.3497645682280149</v>
+        <v>-0.6291742927885853</v>
       </c>
       <c r="E10">
-        <v>-0.6359560834138577</v>
+        <v>-0.2279617101708162</v>
       </c>
       <c r="F10">
-        <v>0.4813147029659838</v>
+        <v>0.7703656759245198</v>
       </c>
       <c r="G10">
-        <v>0.520183111993504</v>
+        <v>-0.02917704649458497</v>
       </c>
       <c r="H10">
-        <v>0.1571509000809523</v>
+        <v>-0.2296287999191447</v>
       </c>
       <c r="I10">
-        <v>-0.4627646804376423</v>
+        <v>0.470526322484588</v>
       </c>
       <c r="J10">
-        <v>0.3489703492737441</v>
+        <v>-0.629598750280044</v>
       </c>
       <c r="K10">
-        <v>0.2425211963472024</v>
+        <v>0.9704511454919744</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -900,34 +765,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.2313224683756314</v>
+        <v>-0.8423510223056532</v>
       </c>
       <c r="C11">
-        <v>-0.5113342710281545</v>
+        <v>0.0161142080852657</v>
       </c>
       <c r="D11">
-        <v>0.4481410208241979</v>
+        <v>0.69334810143327</v>
       </c>
       <c r="E11">
-        <v>0.5638588289884621</v>
+        <v>0.04970516524632071</v>
       </c>
       <c r="F11">
-        <v>0.1539436190835109</v>
+        <v>-0.2519502814499754</v>
       </c>
       <c r="G11">
-        <v>-0.4418582039166736</v>
+        <v>0.5003736222313416</v>
       </c>
       <c r="H11">
-        <v>0.3556832995687395</v>
+        <v>-0.632008739454109</v>
       </c>
       <c r="I11">
-        <v>0.2567870985253624</v>
+        <v>0.98530671707058</v>
       </c>
       <c r="J11">
-        <v>-0.3438282919941164</v>
+        <v>0.07491434640029331</v>
       </c>
       <c r="K11">
-        <v>0.4564590607385475</v>
+        <v>-0.1193939658960854</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -935,34 +800,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.401198451965277</v>
+        <v>0.9425924894418132</v>
       </c>
       <c r="C12">
-        <v>0.5016691676472481</v>
+        <v>0.04623644658810161</v>
       </c>
       <c r="D12">
-        <v>0.1429240330375488</v>
+        <v>-0.1599233504558395</v>
       </c>
       <c r="E12">
-        <v>-0.4610919744592283</v>
+        <v>0.5161979652843859</v>
       </c>
       <c r="F12">
-        <v>0.347777127326904</v>
+        <v>-0.5832845717319484</v>
       </c>
       <c r="G12">
-        <v>0.2460685784398296</v>
+        <v>1.010619986738057</v>
       </c>
       <c r="H12">
-        <v>-0.3519404597225473</v>
+        <v>0.1112816078778656</v>
       </c>
       <c r="I12">
-        <v>0.4475103353061683</v>
+        <v>-0.0903204442476481</v>
       </c>
       <c r="J12">
-        <v>-0.3520262128853794</v>
+        <v>0.4099866297234787</v>
       </c>
       <c r="K12">
-        <v>-0.4521851538735195</v>
+        <v>0.309553974508877</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -970,34 +835,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.3107942050002482</v>
+        <v>-0.4163296368791903</v>
       </c>
       <c r="C13">
-        <v>-0.5530866818048341</v>
+        <v>0.4945915112486901</v>
       </c>
       <c r="D13">
-        <v>0.3955011814912766</v>
+        <v>-0.677286802745907</v>
       </c>
       <c r="E13">
-        <v>0.2273195306739201</v>
+        <v>0.9797682171762248</v>
       </c>
       <c r="F13">
-        <v>-0.33607378160863</v>
+        <v>0.05715419419782413</v>
       </c>
       <c r="G13">
-        <v>0.4465152778812774</v>
+        <v>-0.1271034406643787</v>
       </c>
       <c r="H13">
-        <v>-0.3443954275989072</v>
+        <v>0.3659968533374377</v>
       </c>
       <c r="I13">
-        <v>-0.4488116853223064</v>
+        <v>0.2704047000264007</v>
       </c>
       <c r="J13">
-        <v>0.1534558947860034</v>
+        <v>-0.5316619611123784</v>
       </c>
       <c r="K13">
-        <v>0.4523400882759935</v>
+        <v>0.4695853533604821</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1005,34 +870,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.2470313638878516</v>
+        <v>-0.5434548409624496</v>
       </c>
       <c r="C14">
-        <v>0.2163381080989223</v>
+        <v>0.8392048686039326</v>
       </c>
       <c r="D14">
-        <v>-0.382219343172656</v>
+        <v>0.09059670490280547</v>
       </c>
       <c r="E14">
-        <v>0.4304944302162367</v>
+        <v>-0.1748489429131813</v>
       </c>
       <c r="F14">
-        <v>-0.3705746994480264</v>
+        <v>0.366934135402217</v>
       </c>
       <c r="G14">
-        <v>-0.4681022081216665</v>
+        <v>0.2475888057088644</v>
       </c>
       <c r="H14">
-        <v>0.131439334814142</v>
+        <v>-0.5407573885164876</v>
       </c>
       <c r="I14">
-        <v>0.4319465141156694</v>
+        <v>0.4535905252086884</v>
       </c>
       <c r="J14">
-        <v>1.031808078170147</v>
+        <v>0.5568652954842747</v>
       </c>
       <c r="K14">
-        <v>0.03191678342109842</v>
+        <v>0.155226306859125</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1040,34 +905,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.2462179893920461</v>
+        <v>0.3277348220955802</v>
       </c>
       <c r="C15">
-        <v>0.3663172040900395</v>
+        <v>-0.4264059526571169</v>
       </c>
       <c r="D15">
-        <v>-0.3351021754948724</v>
+        <v>0.4497645682280149</v>
       </c>
       <c r="E15">
-        <v>-0.4781711183639557</v>
+        <v>0.1640439165861423</v>
       </c>
       <c r="F15">
-        <v>0.1435046365503585</v>
+        <v>-0.5186852970340162</v>
       </c>
       <c r="G15">
-        <v>0.4337176428294566</v>
+        <v>0.420183111993504</v>
       </c>
       <c r="H15">
-        <v>1.038518832052795</v>
+        <v>0.5571509000809522</v>
       </c>
       <c r="I15">
-        <v>0.03630862963311415</v>
+        <v>0.1372353195623577</v>
       </c>
       <c r="J15">
-        <v>-0.1626232056058621</v>
+        <v>-0.4510296507262559</v>
       </c>
       <c r="K15">
-        <v>0.5368794473296143</v>
+        <v>0.3425211963472024</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1075,34 +940,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.4418413365634389</v>
+        <v>0.3313224683756314</v>
       </c>
       <c r="C16">
-        <v>-0.3936008578429136</v>
+        <v>0.2886657289718454</v>
       </c>
       <c r="D16">
-        <v>0.1172543824552139</v>
+        <v>-0.5518589791758021</v>
       </c>
       <c r="E16">
-        <v>0.4516170978989082</v>
+        <v>0.4638588289884621</v>
       </c>
       <c r="F16">
-        <v>1.033128071548756</v>
+        <v>0.5539436190835109</v>
       </c>
       <c r="G16">
-        <v>0.04084765064640603</v>
+        <v>0.1581417960833264</v>
       </c>
       <c r="H16">
-        <v>-0.1630540334612161</v>
+        <v>-0.4443167004312605</v>
       </c>
       <c r="I16">
-        <v>0.538651701694054</v>
+        <v>0.3567870985253624</v>
       </c>
       <c r="J16">
-        <v>-0.4621803273346631</v>
+        <v>0.2561717080058837</v>
       </c>
       <c r="K16">
-        <v>0.6381931741814085</v>
+        <v>-0.3435409392614525</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1110,34 +975,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.0222528249818725</v>
+        <v>-0.598801548034723</v>
       </c>
       <c r="C17">
-        <v>0.5217671371183348</v>
+        <v>0.4016691676472482</v>
       </c>
       <c r="D17">
-        <v>1.013425872486637</v>
+        <v>0.5429240330375488</v>
       </c>
       <c r="E17">
-        <v>0.06182232172634722</v>
+        <v>0.1389080255407717</v>
       </c>
       <c r="F17">
-        <v>-0.1631437522813418</v>
+        <v>-0.452222872673096</v>
       </c>
       <c r="G17">
-        <v>0.548430282067481</v>
+        <v>0.3460685784398296</v>
       </c>
       <c r="H17">
-        <v>-0.4573759819117101</v>
+        <v>0.2480595402774528</v>
       </c>
       <c r="I17">
-        <v>0.6453712489913982</v>
+        <v>-0.3524896646938318</v>
       </c>
       <c r="J17">
-        <v>0.8440139177096222</v>
+        <v>0.4479737871146207</v>
       </c>
       <c r="K17">
-        <v>2.844663378249381</v>
+        <v>-0.3521851538735195</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1145,34 +1010,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.4619507554801786</v>
+        <v>0.7107942050002483</v>
       </c>
       <c r="C18">
-        <v>1.131714243775108</v>
+        <v>0.04691331819516587</v>
       </c>
       <c r="D18">
-        <v>0.05355541328031196</v>
+        <v>-0.4044988185087234</v>
       </c>
       <c r="E18">
-        <v>-0.1257501323597413</v>
+        <v>0.3273195306739201</v>
       </c>
       <c r="F18">
-        <v>0.5592900289445792</v>
+        <v>0.26392621839137</v>
       </c>
       <c r="G18">
-        <v>-0.4355828940054706</v>
+        <v>-0.3534847221187227</v>
       </c>
       <c r="H18">
-        <v>0.6614103179090696</v>
+        <v>0.4556045724010928</v>
       </c>
       <c r="I18">
-        <v>0.8625945156589192</v>
+        <v>-0.3488116853223064</v>
       </c>
       <c r="J18">
-        <v>2.861971273868569</v>
+        <v>-0.4465441052139966</v>
       </c>
       <c r="K18">
-        <v>-1.968166222629193</v>
+        <v>0.1523400882759935</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1180,34 +1045,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>1.142115840863729</v>
+        <v>-0.5529686361121483</v>
       </c>
       <c r="C19">
-        <v>0.01775552553920143</v>
+        <v>0.3163381080989223</v>
       </c>
       <c r="D19">
-        <v>-0.1289303166368079</v>
+        <v>0.217780656827344</v>
       </c>
       <c r="E19">
-        <v>0.5449260475529224</v>
+        <v>-0.3695055697837634</v>
       </c>
       <c r="F19">
-        <v>-0.4434798439520484</v>
+        <v>0.4294253005519736</v>
       </c>
       <c r="G19">
-        <v>0.6509787563345349</v>
+        <v>-0.3681022081216666</v>
       </c>
       <c r="H19">
-        <v>0.8534831868870469</v>
+        <v>-0.468560665185858</v>
       </c>
       <c r="I19">
-        <v>2.852303118725465</v>
+        <v>0.1319465141156694</v>
       </c>
       <c r="J19">
-        <v>-1.977560137948725</v>
+        <v>0.4318080781701474</v>
       </c>
       <c r="K19">
-        <v>-0.3813148727383923</v>
+        <v>1.031916783421098</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1215,34 +1080,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.06387299775301862</v>
+        <v>0.3537820106079539</v>
       </c>
       <c r="C20">
-        <v>-0.2386406015427511</v>
+        <v>-0.4336827959099605</v>
       </c>
       <c r="D20">
-        <v>0.5465345136627139</v>
+        <v>0.4648978245051276</v>
       </c>
       <c r="E20">
-        <v>-0.4797470579698297</v>
+        <v>-0.3781711183639557</v>
       </c>
       <c r="F20">
-        <v>0.6367823013710172</v>
+        <v>-0.4564953634496415</v>
       </c>
       <c r="G20">
-        <v>0.8306775631405663</v>
+        <v>0.1337176428294566</v>
       </c>
       <c r="H20">
-        <v>2.834005129644068</v>
+        <v>0.4385188320527947</v>
       </c>
       <c r="I20">
-        <v>-1.997754072112217</v>
+        <v>1.036308629633114</v>
       </c>
       <c r="J20">
-        <v>-0.4005716910974343</v>
+        <v>0.03737679439413787</v>
       </c>
       <c r="K20">
-        <v>-1.16405247533161</v>
+        <v>-0.1631205526703856</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1250,34 +1115,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.1078421804072048</v>
+        <v>0.3581586634365612</v>
       </c>
       <c r="C21">
-        <v>0.3397949975418751</v>
+        <v>-0.2936008578429136</v>
       </c>
       <c r="D21">
-        <v>-0.4542306741715317</v>
+        <v>-0.4827456175447861</v>
       </c>
       <c r="E21">
-        <v>0.5816583664256751</v>
+        <v>0.1516170978989082</v>
       </c>
       <c r="F21">
-        <v>0.8223513901053465</v>
+        <v>0.4331280715487558</v>
       </c>
       <c r="G21">
-        <v>2.807365718051207</v>
+        <v>1.040847650646406</v>
       </c>
       <c r="H21">
-        <v>-2.01473759976219</v>
+        <v>0.03694596653878387</v>
       </c>
       <c r="I21">
-        <v>-0.4216075371600309</v>
+        <v>-0.161348298305946</v>
       </c>
       <c r="J21">
-        <v>-1.183065931341112</v>
+        <v>0.5378196726653369</v>
       </c>
       <c r="K21">
-        <v>0.6574533233780103</v>
+        <v>-0.4618068258185914</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1285,34 +1150,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.3440024215356118</v>
+        <v>-0.5777471750181276</v>
       </c>
       <c r="C22">
-        <v>-0.505397739534472</v>
+        <v>0.2217671371183347</v>
       </c>
       <c r="D22">
-        <v>0.5532833901541662</v>
+        <v>0.4134258724866375</v>
       </c>
       <c r="E22">
-        <v>0.7803573538240896</v>
+        <v>1.061822321726347</v>
       </c>
       <c r="F22">
-        <v>2.77099134964296</v>
+        <v>0.03685624771865824</v>
       </c>
       <c r="G22">
-        <v>-2.05430506035</v>
+        <v>-0.1515697179325191</v>
       </c>
       <c r="H22">
-        <v>-0.4598038986635774</v>
+        <v>0.54262401808829</v>
       </c>
       <c r="I22">
-        <v>-1.221998368485461</v>
+        <v>-0.4546287510086017</v>
       </c>
       <c r="J22">
-        <v>0.6188486301255489</v>
+        <v>0.6440139177096221</v>
       </c>
       <c r="K22">
-        <v>-0.5152666351976153</v>
+        <v>0.8446633782493814</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1320,34 +1185,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.5102721707895886</v>
+        <v>0.1619507554801786</v>
       </c>
       <c r="C23">
-        <v>0.6326516053219892</v>
+        <v>0.5317142437751083</v>
       </c>
       <c r="D23">
-        <v>0.7985937524693149</v>
+        <v>1.053555413280312</v>
       </c>
       <c r="E23">
-        <v>2.807118058036519</v>
+        <v>0.07424986764025877</v>
       </c>
       <c r="F23">
-        <v>-2.028898234839301</v>
+        <v>-0.1407099710554208</v>
       </c>
       <c r="G23">
-        <v>-0.4307795834862882</v>
+        <v>0.5644171059945294</v>
       </c>
       <c r="H23">
-        <v>-1.194904098157857</v>
+        <v>-0.4385896820909304</v>
       </c>
       <c r="I23">
-        <v>0.6466567568524096</v>
+        <v>0.6625945156589192</v>
       </c>
       <c r="J23">
-        <v>-0.4878129493033039</v>
+        <v>0.861971273868569</v>
       </c>
       <c r="K23">
-        <v>0.09336427512580947</v>
+        <v>2.862236025500037</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1355,34 +1220,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.6461969787473875</v>
+        <v>0.5421158408637293</v>
       </c>
       <c r="C24">
-        <v>0.7275511807823752</v>
+        <v>1.017755525539201</v>
       </c>
       <c r="D24">
-        <v>2.785131464184576</v>
+        <v>0.07106968336319208</v>
       </c>
       <c r="E24">
-        <v>-2.059057203102057</v>
+        <v>-0.1550739524470776</v>
       </c>
       <c r="F24">
-        <v>-0.4564384297342535</v>
+        <v>0.5565201560479516</v>
       </c>
       <c r="G24">
-        <v>-1.221203167242165</v>
+        <v>-0.449021243665465</v>
       </c>
       <c r="H24">
-        <v>0.6207126510601733</v>
+        <v>0.6534831868870469</v>
       </c>
       <c r="I24">
-        <v>-0.5137772550861319</v>
+        <v>0.8523031187254658</v>
       </c>
       <c r="J24">
-        <v>0.06741581731808932</v>
+        <v>2.852842110180505</v>
       </c>
       <c r="K24">
-        <v>0.3717058882232228</v>
+        <v>-1.977812104138189</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1390,34 +1255,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0.6825954437061892</v>
+        <v>1.063872997753019</v>
       </c>
       <c r="C25">
-        <v>2.842216327944088</v>
+        <v>-0.03864060154275105</v>
       </c>
       <c r="D25">
-        <v>-2.06720763290607</v>
+        <v>-0.1534654863372861</v>
       </c>
       <c r="E25">
-        <v>-0.4481455430995472</v>
+        <v>0.5202529420301703</v>
       </c>
       <c r="F25">
-        <v>-1.221565938423586</v>
+        <v>-0.4632176986289828</v>
       </c>
       <c r="G25">
-        <v>0.6228314681619653</v>
+        <v>0.6306775631405662</v>
       </c>
       <c r="H25">
-        <v>-0.5128171197394938</v>
+        <v>0.8340051296440686</v>
       </c>
       <c r="I25">
-        <v>0.06873667286641338</v>
+        <v>2.832648176017013</v>
       </c>
       <c r="J25">
-        <v>0.3728708452918135</v>
+        <v>-1.997068922497231</v>
       </c>
       <c r="K25">
-        <v>0.2157162804073426</v>
+        <v>-0.4008668117901249</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1425,34 +1290,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>2.856817594215058</v>
+        <v>0.09215781959279518</v>
       </c>
       <c r="C26">
-        <v>-2.129466984909478</v>
+        <v>-0.3602050024581249</v>
       </c>
       <c r="D26">
-        <v>-0.4619987525309457</v>
+        <v>0.5457693258284683</v>
       </c>
       <c r="E26">
-        <v>-1.24442242888192</v>
+        <v>-0.5183416335743248</v>
       </c>
       <c r="F26">
-        <v>0.6046754036129651</v>
+        <v>0.6223513901053465</v>
       </c>
       <c r="G26">
-        <v>-0.5319447742264044</v>
+        <v>0.8073657180512072</v>
       </c>
       <c r="H26">
-        <v>0.05005624832826262</v>
+        <v>2.81566464836704</v>
       </c>
       <c r="I26">
-        <v>0.3540936505109374</v>
+        <v>-2.018104768559827</v>
       </c>
       <c r="J26">
-        <v>0.1969796945452152</v>
+        <v>-0.4198802677996269</v>
       </c>
       <c r="K26">
-        <v>-0.01601461141597829</v>
+        <v>-1.183807135702884</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1460,34 +1325,34 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-2.06827122513597</v>
+        <v>-0.3559975784643882</v>
       </c>
       <c r="C27">
-        <v>-0.5393060524935414</v>
+        <v>0.4946022604655281</v>
       </c>
       <c r="D27">
-        <v>-1.249190751905067</v>
+        <v>-0.5467166098458338</v>
       </c>
       <c r="E27">
-        <v>0.5847710256158286</v>
+        <v>0.5803573538240896</v>
       </c>
       <c r="F27">
-        <v>-0.5456719516673061</v>
+        <v>0.7709913496429603</v>
       </c>
       <c r="G27">
-        <v>0.03476476730985022</v>
+        <v>2.77609718777923</v>
       </c>
       <c r="H27">
-        <v>0.3393641674595405</v>
+        <v>-2.056301130063374</v>
       </c>
       <c r="I27">
-        <v>0.1820903569841094</v>
+        <v>-0.4588127049439755</v>
       </c>
       <c r="J27">
-        <v>-0.03084990687880229</v>
+        <v>-1.222411828955345</v>
       </c>
       <c r="K27">
-        <v>-0.7436532101788454</v>
+        <v>0.6190442473259902</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1495,34 +1360,34 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.8824990090114404</v>
+        <v>0.4897278292104114</v>
       </c>
       <c r="C28">
-        <v>-1.139340039689374</v>
+        <v>-0.4673483946780108</v>
       </c>
       <c r="D28">
-        <v>0.5505853926793445</v>
+        <v>0.5985937524693148</v>
       </c>
       <c r="E28">
-        <v>-0.5460257266306615</v>
+        <v>0.8071180580365189</v>
       </c>
       <c r="F28">
-        <v>0.0248962717788128</v>
+        <v>2.801504013289929</v>
       </c>
       <c r="G28">
-        <v>0.3318622107353145</v>
+        <v>-2.027276814886084</v>
       </c>
       <c r="H28">
-        <v>0.1739450037537966</v>
+        <v>-0.4317184346163718</v>
       </c>
       <c r="I28">
-        <v>-0.03883239097150494</v>
+        <v>-1.194603702228485</v>
       </c>
       <c r="J28">
-        <v>-0.7516793648181012</v>
+        <v>0.6464979332203015</v>
       </c>
       <c r="K28">
-        <v>-0.4360459003136236</v>
+        <v>-0.4877582350519307</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1530,34 +1395,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-1.661912983979511</v>
+        <v>-0.4538030212526126</v>
       </c>
       <c r="C29">
-        <v>0.717712348585835</v>
+        <v>0.5275511807823752</v>
       </c>
       <c r="D29">
-        <v>-0.4524927510745094</v>
+        <v>0.7851314641845762</v>
       </c>
       <c r="E29">
-        <v>0.08493137822559196</v>
+        <v>2.771345045027173</v>
       </c>
       <c r="F29">
-        <v>0.4026405874624847</v>
+        <v>-2.05293566113405</v>
       </c>
       <c r="G29">
-        <v>0.2465887346014402</v>
+        <v>-0.4580175037006803</v>
       </c>
       <c r="H29">
-        <v>0.03207129724538772</v>
+        <v>-1.220547808020721</v>
       </c>
       <c r="I29">
-        <v>-0.6804850056104548</v>
+        <v>0.6205336274374735</v>
       </c>
       <c r="J29">
-        <v>-0.3647696098992121</v>
+        <v>-0.5137066928596509</v>
       </c>
       <c r="K29">
-        <v>0.1195727875039631</v>
+        <v>0.06739567121076799</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1565,34 +1430,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.3621552303068248</v>
+        <v>0.4825954437061892</v>
       </c>
       <c r="C30">
-        <v>-0.3400294747662294</v>
+        <v>0.8422163279440883</v>
       </c>
       <c r="D30">
-        <v>0.1794600961820314</v>
+        <v>2.763194615223159</v>
       </c>
       <c r="E30">
-        <v>0.4816074644830439</v>
+        <v>-2.044642774499343</v>
       </c>
       <c r="F30">
-        <v>0.3281215904441968</v>
+        <v>-0.4583802748821008</v>
       </c>
       <c r="G30">
-        <v>0.1141027871375559</v>
+        <v>-1.218428990918929</v>
       </c>
       <c r="H30">
-        <v>-0.598550230251171</v>
+        <v>0.6214937627841116</v>
       </c>
       <c r="I30">
-        <v>-0.2829226083174737</v>
+        <v>-0.5123858373113268</v>
       </c>
       <c r="J30">
-        <v>0.2014552750448657</v>
+        <v>0.0685606282793587</v>
       </c>
       <c r="K30">
-        <v>0.2279218833267887</v>
+        <v>0.3729296950345338</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1600,34 +1465,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.1528241944177729</v>
+        <v>0.8568175942150587</v>
       </c>
       <c r="C31">
-        <v>0.192285411370068</v>
+        <v>2.700935263219752</v>
       </c>
       <c r="D31">
-        <v>0.3555645473243835</v>
+        <v>-2.058495983930742</v>
       </c>
       <c r="E31">
-        <v>0.281637439270124</v>
+        <v>-0.481236765340435</v>
       </c>
       <c r="F31">
-        <v>0.07661480437198306</v>
+        <v>-1.236585055467929</v>
       </c>
       <c r="G31">
-        <v>-0.6551323959666511</v>
+        <v>0.6023661082972011</v>
       </c>
       <c r="H31">
-        <v>-0.3363989667270018</v>
+        <v>-0.5310662618494776</v>
       </c>
       <c r="I31">
-        <v>0.1510715132364001</v>
+        <v>0.04978343349848258</v>
       </c>
       <c r="J31">
-        <v>0.1761317285981892</v>
+        <v>0.3541931091724064</v>
       </c>
       <c r="K31">
-        <v>-0.08431581322614003</v>
+        <v>0.1969477697664939</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1635,34 +1500,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0.1955618508866619</v>
+        <v>2.76213102299326</v>
       </c>
       <c r="C32">
-        <v>0.2940124728063398</v>
+        <v>-2.135803283893338</v>
       </c>
       <c r="D32">
-        <v>0.2932814864232594</v>
+        <v>-0.4860050883635817</v>
       </c>
       <c r="E32">
-        <v>0.09873476815367339</v>
+        <v>-1.256489433465066</v>
       </c>
       <c r="F32">
-        <v>-0.6616475957927799</v>
+        <v>0.5886389308562994</v>
       </c>
       <c r="G32">
-        <v>-0.3394626838551869</v>
+        <v>-0.54635774286789</v>
       </c>
       <c r="H32">
-        <v>0.1564201222179605</v>
+        <v>0.03505395044708565</v>
       </c>
       <c r="I32">
-        <v>0.178266249373156</v>
+        <v>0.3393037716113005</v>
       </c>
       <c r="J32">
-        <v>-0.08393940633781374</v>
+        <v>0.1821124743036699</v>
       </c>
       <c r="K32">
-        <v>0.1187281278506455</v>
+        <v>-0.03085504341059452</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1670,34 +1535,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0.4859366050582011</v>
+        <v>-2.478996240411237</v>
       </c>
       <c r="C33">
-        <v>0.2527645357277814</v>
+        <v>-0.3761543761478888</v>
       </c>
       <c r="D33">
-        <v>-0.0005780809034607211</v>
+        <v>-1.29067506640155</v>
       </c>
       <c r="E33">
-        <v>-0.6800661175023524</v>
+        <v>0.5882851558929439</v>
       </c>
       <c r="F33">
-        <v>-0.3592061368045377</v>
+        <v>-0.5562262383989274</v>
       </c>
       <c r="G33">
-        <v>0.1134118073140826</v>
+        <v>0.02755199372285969</v>
       </c>
       <c r="H33">
-        <v>0.1408912197714845</v>
+        <v>0.3311584183809878</v>
       </c>
       <c r="I33">
-        <v>-0.1157727589425605</v>
+        <v>0.1741299902109673</v>
       </c>
       <c r="J33">
-        <v>0.08400522081868537</v>
+        <v>-0.0388811980498503</v>
       </c>
       <c r="K33">
-        <v>-0.3827393144060302</v>
+        <v>-0.7516665100642587</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1705,34 +1570,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0.296910370302619</v>
+        <v>-0.8987273204380259</v>
       </c>
       <c r="C34">
-        <v>0.1754560687985913</v>
+        <v>-1.123548110495059</v>
       </c>
       <c r="D34">
-        <v>-0.7052163312650161</v>
+        <v>0.681818131449096</v>
       </c>
       <c r="E34">
-        <v>-0.3817026643028616</v>
+        <v>-0.4961911319521482</v>
       </c>
       <c r="F34">
-        <v>0.1553997145213433</v>
+        <v>0.09833037045002985</v>
       </c>
       <c r="G34">
-        <v>0.1674977960928535</v>
+        <v>0.4038021492286314</v>
       </c>
       <c r="H34">
-        <v>-0.1065635362101564</v>
+        <v>0.2450336784278599</v>
       </c>
       <c r="I34">
-        <v>0.1021079279493657</v>
+        <v>0.03231316115779607</v>
       </c>
       <c r="J34">
-        <v>-0.3610106484504418</v>
+        <v>-0.6803902196498471</v>
       </c>
       <c r="K34">
-        <v>0.02833835687728319</v>
+        <v>-0.3648144733125143</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1740,34 +1605,31 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0.5452301634242622</v>
+        <v>-1.479105228774069</v>
       </c>
       <c r="C35">
-        <v>-0.7258121609517026</v>
+        <v>0.7942814077573761</v>
       </c>
       <c r="D35">
-        <v>-0.5735341923513524</v>
+        <v>-0.4016624139957087</v>
       </c>
       <c r="E35">
-        <v>0.1407196671650178</v>
+        <v>0.177297247470589</v>
       </c>
       <c r="F35">
-        <v>0.1814599519470501</v>
+        <v>0.485335005071388</v>
       </c>
       <c r="G35">
-        <v>-0.1632513031943741</v>
+        <v>0.3270651683200281</v>
       </c>
       <c r="H35">
-        <v>0.04869779706901605</v>
+        <v>0.1142479365170799</v>
       </c>
       <c r="I35">
-        <v>-0.389206151961996</v>
+        <v>-0.5985432180681087</v>
       </c>
       <c r="J35">
-        <v>-0.005987546100517832</v>
-      </c>
-      <c r="K35">
-        <v>-0.06373036497251372</v>
+        <v>-0.2829319857716117</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1775,34 +1637,28 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.4982750086490569</v>
+        <v>0.9814866881058326</v>
       </c>
       <c r="C36">
-        <v>-0.4247678582686685</v>
+        <v>-0.3888370988076722</v>
       </c>
       <c r="D36">
-        <v>0.03391359169615926</v>
+        <v>0.05125433031192864</v>
       </c>
       <c r="E36">
-        <v>0.1493741791200265</v>
+        <v>0.4388508538973153</v>
       </c>
       <c r="F36">
-        <v>-0.1197510925191332</v>
+        <v>0.2895771855544552</v>
       </c>
       <c r="G36">
-        <v>0.05212655311200023</v>
+        <v>0.05766577080159978</v>
       </c>
       <c r="H36">
-        <v>-0.4048358621305213</v>
+        <v>-0.6520195764776368</v>
       </c>
       <c r="I36">
-        <v>-0.004085650098749142</v>
-      </c>
-      <c r="J36">
-        <v>-0.05838528503014214</v>
-      </c>
-      <c r="K36">
-        <v>0.2567786966609284</v>
+        <v>-0.3333157475800774</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1810,34 +1666,25 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-0.508650254309497</v>
+        <v>-0.3855606592910783</v>
       </c>
       <c r="C37">
-        <v>-0.1393722115166278</v>
+        <v>-0.01029774420611503</v>
       </c>
       <c r="D37">
-        <v>0.2298823080694528</v>
+        <v>0.4504949010504506</v>
       </c>
       <c r="E37">
-        <v>-0.06402758941415204</v>
+        <v>0.3116971493361456</v>
       </c>
       <c r="F37">
-        <v>0.0128734550610147</v>
+        <v>0.05115057097547097</v>
       </c>
       <c r="G37">
-        <v>-0.4118543373381829</v>
+        <v>-0.6550832936058218</v>
       </c>
       <c r="H37">
-        <v>0.01890615980242083</v>
-      </c>
-      <c r="I37">
-        <v>-0.05515863131442719</v>
-      </c>
-      <c r="J37">
-        <v>0.252787469772311</v>
-      </c>
-      <c r="K37">
-        <v>0.1395984221890072</v>
+        <v>-0.3279671385985169</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1845,34 +1692,22 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.0339353762289353</v>
+        <v>0.1816263880457463</v>
       </c>
       <c r="C38">
-        <v>0.009547288858323122</v>
+        <v>0.4099779503549726</v>
       </c>
       <c r="D38">
-        <v>-0.05867037900820865</v>
+        <v>0.2123843002790115</v>
       </c>
       <c r="E38">
-        <v>0.09141644286826343</v>
+        <v>0.03273204926589856</v>
       </c>
       <c r="F38">
-        <v>-0.4352656540720088</v>
+        <v>-0.6748267465551727</v>
       </c>
       <c r="G38">
-        <v>-0.009515086540656081</v>
-      </c>
-      <c r="H38">
-        <v>-0.04378083892513664</v>
-      </c>
-      <c r="I38">
-        <v>0.2571867124383387</v>
-      </c>
-      <c r="J38">
-        <v>0.1304529729084137</v>
-      </c>
-      <c r="K38">
-        <v>0.09318100141914656</v>
+        <v>-0.3709754535023949</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1880,31 +1715,19 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.1096527662563808</v>
+        <v>0.4541237849298102</v>
       </c>
       <c r="C39">
-        <v>-0.03295316053790909</v>
+        <v>0.3884184499810635</v>
       </c>
       <c r="D39">
-        <v>0.151133397323389</v>
+        <v>0.007581835503234789</v>
       </c>
       <c r="E39">
-        <v>-0.4395305265204166</v>
+        <v>-0.6973232740534967</v>
       </c>
       <c r="F39">
-        <v>-0.01522629362682212</v>
-      </c>
-      <c r="G39">
-        <v>-0.02377193271877638</v>
-      </c>
-      <c r="H39">
-        <v>0.2728401849684038</v>
-      </c>
-      <c r="I39">
-        <v>0.136721681092757</v>
-      </c>
-      <c r="J39">
-        <v>0.1030047754763971</v>
+        <v>-0.3289875462951342</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1912,28 +1735,16 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0.130614789285099</v>
+        <v>0.7581925446067344</v>
       </c>
       <c r="C40">
-        <v>0.06904616952861972</v>
+        <v>-0.01301399418345174</v>
       </c>
       <c r="D40">
-        <v>-0.4935588452908021</v>
+        <v>-0.8891548021019874</v>
       </c>
       <c r="E40">
-        <v>0.02169177924117932</v>
-      </c>
-      <c r="F40">
-        <v>-0.01615982681018724</v>
-      </c>
-      <c r="G40">
-        <v>0.2505955177766696</v>
-      </c>
-      <c r="H40">
-        <v>0.1320086938860167</v>
-      </c>
-      <c r="I40">
-        <v>0.1064937699494305</v>
+        <v>-0.3436675936514596</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1941,25 +1752,13 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.01800953835259643</v>
+        <v>0.2145231581191939</v>
       </c>
       <c r="C41">
-        <v>-0.4080186351273937</v>
+        <v>-0.7403884680193036</v>
       </c>
       <c r="D41">
-        <v>0.05136163154806897</v>
-      </c>
-      <c r="E41">
-        <v>-0.04100627984862588</v>
-      </c>
-      <c r="F41">
-        <v>0.2597619993073036</v>
-      </c>
-      <c r="G41">
-        <v>0.1547253467405393</v>
-      </c>
-      <c r="H41">
-        <v>0.1129264600830181</v>
+        <v>-0.4504736691203182</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1967,22 +1766,10 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>-0.3779414565765412</v>
+        <v>-0.8242708640601319</v>
       </c>
       <c r="C42">
-        <v>0.02538244381270506</v>
-      </c>
-      <c r="D42">
-        <v>-0.05959440407601985</v>
-      </c>
-      <c r="E42">
-        <v>0.2610857860875664</v>
-      </c>
-      <c r="F42">
-        <v>0.1489460797320124</v>
-      </c>
-      <c r="G42">
-        <v>0.1010362671545189</v>
+        <v>-0.6237594723331052</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1990,74 +1777,57 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.1949799536215346</v>
-      </c>
-      <c r="C43">
-        <v>-0.1475111106699463</v>
-      </c>
-      <c r="D43">
-        <v>0.3686285199142624</v>
-      </c>
-      <c r="E43">
-        <v>0.1636841116180608</v>
-      </c>
-      <c r="F43">
-        <v>0.06283620299754555</v>
+        <v>-0.5183226370454127</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B44">
-        <v>-0.03606207031626406</v>
-      </c>
-      <c r="C44">
-        <v>0.2393691092794901</v>
-      </c>
-      <c r="D44">
-        <v>0.1197574460500262</v>
-      </c>
-      <c r="E44">
-        <v>0.09159169041646877</v>
-      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B45">
-        <v>0.5654387236164853</v>
-      </c>
-      <c r="C45">
-        <v>0.01419608865183131</v>
-      </c>
-      <c r="D45">
-        <v>-0.0317060320362991</v>
-      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B46">
-        <v>0.5029245468667597</v>
-      </c>
-      <c r="C46">
-        <v>0.05437575235349596</v>
-      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B47">
-        <v>-0.2908456105298443</v>
-      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/TRDBAL/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Q0</t>
   </si>
@@ -44,21 +44,6 @@
   </si>
   <si>
     <t>Q9</t>
-  </si>
-  <si>
-    <t>2007-10-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2008-04-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2008-10-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2009-04-01 00:00:00_diff</t>
-  </si>
-  <si>
-    <t>2009-10-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2010-04-01 00:00:00_diff</t>
@@ -557,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,60 +584,210 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B2">
+        <v>-0.2115600858023061</v>
+      </c>
+      <c r="C2">
+        <v>-0.6983770604983449</v>
+      </c>
+      <c r="D2">
+        <v>-0.2975272897211245</v>
+      </c>
+      <c r="E2">
+        <v>-0.6801298986434701</v>
+      </c>
+      <c r="F2">
+        <v>-0.04385122821649786</v>
+      </c>
+      <c r="G2">
+        <v>-0.1876167747802305</v>
+      </c>
+      <c r="H2">
+        <v>0.4008956098327321</v>
+      </c>
+      <c r="I2">
+        <v>-0.953091131074053</v>
+      </c>
+      <c r="J2">
+        <v>-0.7199170215585443</v>
+      </c>
+      <c r="K2">
+        <v>-0.3401820200458039</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B3">
+        <v>-0.2354689282356912</v>
+      </c>
+      <c r="C3">
+        <v>-0.4043186531178578</v>
+      </c>
+      <c r="D3">
+        <v>0.0137712456334915</v>
+      </c>
+      <c r="E3">
+        <v>-0.04228491231853701</v>
+      </c>
+      <c r="F3">
+        <v>0.4700400313155295</v>
+      </c>
+      <c r="G3">
+        <v>-0.8493078637071944</v>
+      </c>
+      <c r="H3">
+        <v>-0.6431110801374796</v>
+      </c>
+      <c r="I3">
+        <v>-0.2500159038824407</v>
+      </c>
+      <c r="J3">
+        <v>0.7527701023327219</v>
+      </c>
+      <c r="K3">
+        <v>-0.04976115771170253</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B4">
+        <v>0.08209443217122959</v>
+      </c>
+      <c r="C4">
+        <v>0.1068503057761796</v>
+      </c>
+      <c r="D4">
+        <v>0.5089535038483687</v>
+      </c>
+      <c r="E4">
+        <v>-0.7759498189697713</v>
+      </c>
+      <c r="F4">
+        <v>-0.6066784137372541</v>
+      </c>
+      <c r="G4">
+        <v>-0.1997281533004306</v>
+      </c>
+      <c r="H4">
+        <v>0.7904542997742127</v>
+      </c>
+      <c r="I4">
+        <v>-0.006683052599829764</v>
+      </c>
+      <c r="J4">
+        <v>-0.2098696834168884</v>
+      </c>
+      <c r="K4">
+        <v>0.4912426384382692</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B5">
+        <v>0.4747677665726981</v>
+      </c>
+      <c r="C5">
+        <v>-0.8227906134261972</v>
+      </c>
+      <c r="D5">
+        <v>-0.6291742927885853</v>
+      </c>
+      <c r="E5">
+        <v>-0.2279617101708162</v>
+      </c>
+      <c r="F5">
+        <v>0.7703656759245198</v>
+      </c>
+      <c r="G5">
+        <v>-0.02917704649458497</v>
+      </c>
+      <c r="H5">
+        <v>-0.2296287999191447</v>
+      </c>
+      <c r="I5">
+        <v>0.470526322484588</v>
+      </c>
+      <c r="J5">
+        <v>-0.629598750280044</v>
+      </c>
+      <c r="K5">
+        <v>0.9704511454919744</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B6">
+        <v>-0.8423510223056532</v>
+      </c>
+      <c r="C6">
+        <v>0.0161142080852657</v>
+      </c>
+      <c r="D6">
+        <v>0.69334810143327</v>
+      </c>
+      <c r="E6">
+        <v>0.04970516524632071</v>
+      </c>
+      <c r="F6">
+        <v>-0.2519502814499754</v>
+      </c>
+      <c r="G6">
+        <v>0.5003736222313416</v>
+      </c>
+      <c r="H6">
+        <v>-0.632008739454109</v>
+      </c>
+      <c r="I6">
+        <v>0.98530671707058</v>
+      </c>
+      <c r="J6">
+        <v>0.07491434640029331</v>
+      </c>
+      <c r="K6">
+        <v>-0.1193939658960854</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.2115600858023061</v>
+        <v>0.9425924894418132</v>
       </c>
       <c r="C7">
-        <v>-0.6983770604983449</v>
+        <v>0.04623644658810161</v>
       </c>
       <c r="D7">
-        <v>-0.2975272897211245</v>
+        <v>-0.1599233504558395</v>
       </c>
       <c r="E7">
-        <v>-0.6801298986434701</v>
+        <v>0.5161979652843859</v>
       </c>
       <c r="F7">
-        <v>-0.04385122821649786</v>
+        <v>-0.5832845717319484</v>
       </c>
       <c r="G7">
-        <v>-0.1876167747802305</v>
+        <v>1.010619986738057</v>
       </c>
       <c r="H7">
-        <v>0.4008956098327321</v>
+        <v>0.1112816078778656</v>
       </c>
       <c r="I7">
-        <v>-0.953091131074053</v>
+        <v>-0.0903204442476481</v>
       </c>
       <c r="J7">
-        <v>-0.7199170215585443</v>
+        <v>0.4099866297234787</v>
       </c>
       <c r="K7">
-        <v>-0.3401820200458039</v>
+        <v>0.309553974508877</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -660,34 +795,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.2354689282356912</v>
+        <v>-0.4163296368791903</v>
       </c>
       <c r="C8">
-        <v>-0.4043186531178578</v>
+        <v>0.4945915112486901</v>
       </c>
       <c r="D8">
-        <v>0.0137712456334915</v>
+        <v>-0.677286802745907</v>
       </c>
       <c r="E8">
-        <v>-0.04228491231853701</v>
+        <v>0.9797682171762248</v>
       </c>
       <c r="F8">
-        <v>0.4700400313155295</v>
+        <v>0.05715419419782413</v>
       </c>
       <c r="G8">
-        <v>-0.8493078637071944</v>
+        <v>-0.1271034406643787</v>
       </c>
       <c r="H8">
-        <v>-0.6431110801374796</v>
+        <v>0.3659968533374377</v>
       </c>
       <c r="I8">
-        <v>-0.2500159038824407</v>
+        <v>0.2704047000264007</v>
       </c>
       <c r="J8">
-        <v>0.7527701023327219</v>
+        <v>-0.5316619611123784</v>
       </c>
       <c r="K8">
-        <v>-0.04976115771170253</v>
+        <v>0.4695853533604821</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -695,34 +830,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.08209443217122959</v>
+        <v>-0.5434548409624496</v>
       </c>
       <c r="C9">
-        <v>0.1068503057761796</v>
+        <v>0.8392048686039326</v>
       </c>
       <c r="D9">
-        <v>0.5089535038483687</v>
+        <v>0.09059670490280547</v>
       </c>
       <c r="E9">
-        <v>-0.7759498189697713</v>
+        <v>-0.1748489429131813</v>
       </c>
       <c r="F9">
-        <v>-0.6066784137372541</v>
+        <v>0.366934135402217</v>
       </c>
       <c r="G9">
-        <v>-0.1997281533004306</v>
+        <v>0.2475888057088644</v>
       </c>
       <c r="H9">
-        <v>0.7904542997742127</v>
+        <v>-0.5407573885164876</v>
       </c>
       <c r="I9">
-        <v>-0.006683052599829764</v>
+        <v>0.4535905252086884</v>
       </c>
       <c r="J9">
-        <v>-0.2098696834168884</v>
+        <v>0.5568652954842747</v>
       </c>
       <c r="K9">
-        <v>0.4912426384382692</v>
+        <v>0.155226306859125</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -730,34 +865,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.4747677665726981</v>
+        <v>0.3277348220955802</v>
       </c>
       <c r="C10">
-        <v>-0.8227906134261972</v>
+        <v>-0.4264059526571169</v>
       </c>
       <c r="D10">
-        <v>-0.6291742927885853</v>
+        <v>0.4497645682280149</v>
       </c>
       <c r="E10">
-        <v>-0.2279617101708162</v>
+        <v>0.1640439165861423</v>
       </c>
       <c r="F10">
-        <v>0.7703656759245198</v>
+        <v>-0.5186852970340162</v>
       </c>
       <c r="G10">
-        <v>-0.02917704649458497</v>
+        <v>0.420183111993504</v>
       </c>
       <c r="H10">
-        <v>-0.2296287999191447</v>
+        <v>0.5571509000809522</v>
       </c>
       <c r="I10">
-        <v>0.470526322484588</v>
+        <v>0.1372353195623577</v>
       </c>
       <c r="J10">
-        <v>-0.629598750280044</v>
+        <v>-0.4510296507262559</v>
       </c>
       <c r="K10">
-        <v>0.9704511454919744</v>
+        <v>0.3425211963472024</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -765,34 +900,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.8423510223056532</v>
+        <v>0.3313224683756314</v>
       </c>
       <c r="C11">
-        <v>0.0161142080852657</v>
+        <v>0.2886657289718454</v>
       </c>
       <c r="D11">
-        <v>0.69334810143327</v>
+        <v>-0.5518589791758021</v>
       </c>
       <c r="E11">
-        <v>0.04970516524632071</v>
+        <v>0.4638588289884621</v>
       </c>
       <c r="F11">
-        <v>-0.2519502814499754</v>
+        <v>0.5539436190835109</v>
       </c>
       <c r="G11">
-        <v>0.5003736222313416</v>
+        <v>0.1581417960833264</v>
       </c>
       <c r="H11">
-        <v>-0.632008739454109</v>
+        <v>-0.4443167004312605</v>
       </c>
       <c r="I11">
-        <v>0.98530671707058</v>
+        <v>0.3567870985253624</v>
       </c>
       <c r="J11">
-        <v>0.07491434640029331</v>
+        <v>0.2561717080058837</v>
       </c>
       <c r="K11">
-        <v>-0.1193939658960854</v>
+        <v>-0.3435409392614525</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -800,34 +935,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.9425924894418132</v>
+        <v>-0.598801548034723</v>
       </c>
       <c r="C12">
-        <v>0.04623644658810161</v>
+        <v>0.4016691676472482</v>
       </c>
       <c r="D12">
-        <v>-0.1599233504558395</v>
+        <v>0.5429240330375488</v>
       </c>
       <c r="E12">
-        <v>0.5161979652843859</v>
+        <v>0.1389080255407717</v>
       </c>
       <c r="F12">
-        <v>-0.5832845717319484</v>
+        <v>-0.452222872673096</v>
       </c>
       <c r="G12">
-        <v>1.010619986738057</v>
+        <v>0.3460685784398296</v>
       </c>
       <c r="H12">
-        <v>0.1112816078778656</v>
+        <v>0.2480595402774528</v>
       </c>
       <c r="I12">
-        <v>-0.0903204442476481</v>
+        <v>-0.3524896646938318</v>
       </c>
       <c r="J12">
-        <v>0.4099866297234787</v>
+        <v>0.4479737871146207</v>
       </c>
       <c r="K12">
-        <v>0.309553974508877</v>
+        <v>-0.3521851538735195</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -835,34 +970,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.4163296368791903</v>
+        <v>0.7107942050002483</v>
       </c>
       <c r="C13">
-        <v>0.4945915112486901</v>
+        <v>0.04691331819516587</v>
       </c>
       <c r="D13">
-        <v>-0.677286802745907</v>
+        <v>-0.4044988185087234</v>
       </c>
       <c r="E13">
-        <v>0.9797682171762248</v>
+        <v>0.3273195306739201</v>
       </c>
       <c r="F13">
-        <v>0.05715419419782413</v>
+        <v>0.26392621839137</v>
       </c>
       <c r="G13">
-        <v>-0.1271034406643787</v>
+        <v>-0.3534847221187227</v>
       </c>
       <c r="H13">
-        <v>0.3659968533374377</v>
+        <v>0.4556045724010928</v>
       </c>
       <c r="I13">
-        <v>0.2704047000264007</v>
+        <v>-0.3488116853223064</v>
       </c>
       <c r="J13">
-        <v>-0.5316619611123784</v>
+        <v>-0.4465441052139966</v>
       </c>
       <c r="K13">
-        <v>0.4695853533604821</v>
+        <v>0.1523400882759935</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -870,34 +1005,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.5434548409624496</v>
+        <v>-0.5529686361121483</v>
       </c>
       <c r="C14">
-        <v>0.8392048686039326</v>
+        <v>0.3163381080989223</v>
       </c>
       <c r="D14">
-        <v>0.09059670490280547</v>
+        <v>0.217780656827344</v>
       </c>
       <c r="E14">
-        <v>-0.1748489429131813</v>
+        <v>-0.3695055697837634</v>
       </c>
       <c r="F14">
-        <v>0.366934135402217</v>
+        <v>0.4294253005519736</v>
       </c>
       <c r="G14">
-        <v>0.2475888057088644</v>
+        <v>-0.3681022081216666</v>
       </c>
       <c r="H14">
-        <v>-0.5407573885164876</v>
+        <v>-0.468560665185858</v>
       </c>
       <c r="I14">
-        <v>0.4535905252086884</v>
+        <v>0.1319465141156694</v>
       </c>
       <c r="J14">
-        <v>0.5568652954842747</v>
+        <v>0.4318080781701474</v>
       </c>
       <c r="K14">
-        <v>0.155226306859125</v>
+        <v>1.031916783421098</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -905,34 +1040,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.3277348220955802</v>
+        <v>0.3537820106079539</v>
       </c>
       <c r="C15">
-        <v>-0.4264059526571169</v>
+        <v>-0.4336827959099605</v>
       </c>
       <c r="D15">
-        <v>0.4497645682280149</v>
+        <v>0.4648978245051276</v>
       </c>
       <c r="E15">
-        <v>0.1640439165861423</v>
+        <v>-0.3781711183639557</v>
       </c>
       <c r="F15">
-        <v>-0.5186852970340162</v>
+        <v>-0.4564953634496415</v>
       </c>
       <c r="G15">
-        <v>0.420183111993504</v>
+        <v>0.1337176428294566</v>
       </c>
       <c r="H15">
-        <v>0.5571509000809522</v>
+        <v>0.4385188320527947</v>
       </c>
       <c r="I15">
-        <v>0.1372353195623577</v>
+        <v>1.036308629633114</v>
       </c>
       <c r="J15">
-        <v>-0.4510296507262559</v>
+        <v>0.03737679439413787</v>
       </c>
       <c r="K15">
-        <v>0.3425211963472024</v>
+        <v>-0.1631205526703856</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -940,34 +1075,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.3313224683756314</v>
+        <v>0.3581586634365612</v>
       </c>
       <c r="C16">
-        <v>0.2886657289718454</v>
+        <v>-0.2936008578429136</v>
       </c>
       <c r="D16">
-        <v>-0.5518589791758021</v>
+        <v>-0.4827456175447861</v>
       </c>
       <c r="E16">
-        <v>0.4638588289884621</v>
+        <v>0.1516170978989082</v>
       </c>
       <c r="F16">
-        <v>0.5539436190835109</v>
+        <v>0.4331280715487558</v>
       </c>
       <c r="G16">
-        <v>0.1581417960833264</v>
+        <v>1.040847650646406</v>
       </c>
       <c r="H16">
-        <v>-0.4443167004312605</v>
+        <v>0.03694596653878387</v>
       </c>
       <c r="I16">
-        <v>0.3567870985253624</v>
+        <v>-0.161348298305946</v>
       </c>
       <c r="J16">
-        <v>0.2561717080058837</v>
+        <v>0.5378196726653369</v>
       </c>
       <c r="K16">
-        <v>-0.3435409392614525</v>
+        <v>-0.4618068258185914</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -975,34 +1110,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-0.598801548034723</v>
+        <v>-0.5777471750181276</v>
       </c>
       <c r="C17">
-        <v>0.4016691676472482</v>
+        <v>0.2217671371183347</v>
       </c>
       <c r="D17">
-        <v>0.5429240330375488</v>
+        <v>0.4134258724866375</v>
       </c>
       <c r="E17">
-        <v>0.1389080255407717</v>
+        <v>1.061822321726347</v>
       </c>
       <c r="F17">
-        <v>-0.452222872673096</v>
+        <v>0.03685624771865824</v>
       </c>
       <c r="G17">
-        <v>0.3460685784398296</v>
+        <v>-0.1515697179325191</v>
       </c>
       <c r="H17">
-        <v>0.2480595402774528</v>
+        <v>0.54262401808829</v>
       </c>
       <c r="I17">
-        <v>-0.3524896646938318</v>
+        <v>-0.4546287510086017</v>
       </c>
       <c r="J17">
-        <v>0.4479737871146207</v>
+        <v>0.6440139177096221</v>
       </c>
       <c r="K17">
-        <v>-0.3521851538735195</v>
+        <v>0.8446633782493814</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1010,34 +1145,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.7107942050002483</v>
+        <v>0.1619507554801786</v>
       </c>
       <c r="C18">
-        <v>0.04691331819516587</v>
+        <v>0.5317142437751083</v>
       </c>
       <c r="D18">
-        <v>-0.4044988185087234</v>
+        <v>1.053555413280312</v>
       </c>
       <c r="E18">
-        <v>0.3273195306739201</v>
+        <v>0.07424986764025877</v>
       </c>
       <c r="F18">
-        <v>0.26392621839137</v>
+        <v>-0.1407099710554208</v>
       </c>
       <c r="G18">
-        <v>-0.3534847221187227</v>
+        <v>0.5644171059945294</v>
       </c>
       <c r="H18">
-        <v>0.4556045724010928</v>
+        <v>-0.4385896820909304</v>
       </c>
       <c r="I18">
-        <v>-0.3488116853223064</v>
+        <v>0.6625945156589192</v>
       </c>
       <c r="J18">
-        <v>-0.4465441052139966</v>
+        <v>0.861971273868569</v>
       </c>
       <c r="K18">
-        <v>0.1523400882759935</v>
+        <v>2.862236025500037</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1045,34 +1180,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-0.5529686361121483</v>
+        <v>0.5421158408637293</v>
       </c>
       <c r="C19">
-        <v>0.3163381080989223</v>
+        <v>1.017755525539201</v>
       </c>
       <c r="D19">
-        <v>0.217780656827344</v>
+        <v>0.07106968336319208</v>
       </c>
       <c r="E19">
-        <v>-0.3695055697837634</v>
+        <v>-0.1550739524470776</v>
       </c>
       <c r="F19">
-        <v>0.4294253005519736</v>
+        <v>0.5565201560479516</v>
       </c>
       <c r="G19">
-        <v>-0.3681022081216666</v>
+        <v>-0.449021243665465</v>
       </c>
       <c r="H19">
-        <v>-0.468560665185858</v>
+        <v>0.6534831868870469</v>
       </c>
       <c r="I19">
-        <v>0.1319465141156694</v>
+        <v>0.8523031187254658</v>
       </c>
       <c r="J19">
-        <v>0.4318080781701474</v>
+        <v>2.852842110180505</v>
       </c>
       <c r="K19">
-        <v>1.031916783421098</v>
+        <v>-3.847409856008959</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1080,34 +1215,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.3537820106079539</v>
+        <v>1.063872997753019</v>
       </c>
       <c r="C20">
-        <v>-0.4336827959099605</v>
+        <v>-0.03864060154275105</v>
       </c>
       <c r="D20">
-        <v>0.4648978245051276</v>
+        <v>-0.1534654863372861</v>
       </c>
       <c r="E20">
-        <v>-0.3781711183639557</v>
+        <v>0.5202529420301703</v>
       </c>
       <c r="F20">
-        <v>-0.4564953634496415</v>
+        <v>-0.4632176986289828</v>
       </c>
       <c r="G20">
-        <v>0.1337176428294566</v>
+        <v>0.6306775631405662</v>
       </c>
       <c r="H20">
-        <v>0.4385188320527947</v>
+        <v>0.8340051296440686</v>
       </c>
       <c r="I20">
-        <v>1.036308629633114</v>
+        <v>2.832648176017013</v>
       </c>
       <c r="J20">
-        <v>0.03737679439413787</v>
+        <v>-3.866666674368</v>
       </c>
       <c r="K20">
-        <v>-0.1631205526703856</v>
+        <v>-0.5669617950606911</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1115,34 +1250,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.3581586634365612</v>
+        <v>0.09215781959279518</v>
       </c>
       <c r="C21">
-        <v>-0.2936008578429136</v>
+        <v>-0.3602050024581249</v>
       </c>
       <c r="D21">
-        <v>-0.4827456175447861</v>
+        <v>0.5457693258284683</v>
       </c>
       <c r="E21">
-        <v>0.1516170978989082</v>
+        <v>-0.5183416335743248</v>
       </c>
       <c r="F21">
-        <v>0.4331280715487558</v>
+        <v>0.6223513901053465</v>
       </c>
       <c r="G21">
-        <v>1.040847650646406</v>
+        <v>0.8073657180512072</v>
       </c>
       <c r="H21">
-        <v>0.03694596653878387</v>
+        <v>2.81566464836704</v>
       </c>
       <c r="I21">
-        <v>-0.161348298305946</v>
+        <v>-3.887702520430597</v>
       </c>
       <c r="J21">
-        <v>0.5378196726653369</v>
+        <v>-0.5859752510701932</v>
       </c>
       <c r="K21">
-        <v>-0.4618068258185914</v>
+        <v>0.6132835445680351</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1150,34 +1285,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.5777471750181276</v>
+        <v>-0.3559975784643882</v>
       </c>
       <c r="C22">
-        <v>0.2217671371183347</v>
+        <v>0.4946022604655281</v>
       </c>
       <c r="D22">
-        <v>0.4134258724866375</v>
+        <v>-0.5467166098458338</v>
       </c>
       <c r="E22">
-        <v>1.061822321726347</v>
+        <v>0.5803573538240896</v>
       </c>
       <c r="F22">
-        <v>0.03685624771865824</v>
+        <v>0.7709913496429603</v>
       </c>
       <c r="G22">
-        <v>-0.1515697179325191</v>
+        <v>2.77609718777923</v>
       </c>
       <c r="H22">
-        <v>0.54262401808829</v>
+        <v>-3.925898881934144</v>
       </c>
       <c r="I22">
-        <v>-0.4546287510086017</v>
+        <v>-0.6249076882145418</v>
       </c>
       <c r="J22">
-        <v>0.6440139177096221</v>
+        <v>0.5746788513155737</v>
       </c>
       <c r="K22">
-        <v>0.8446633782493814</v>
+        <v>0.574874468516015</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1185,34 +1320,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.1619507554801786</v>
+        <v>0.4897278292104114</v>
       </c>
       <c r="C23">
-        <v>0.5317142437751083</v>
+        <v>-0.4673483946780108</v>
       </c>
       <c r="D23">
-        <v>1.053555413280312</v>
+        <v>0.5985937524693148</v>
       </c>
       <c r="E23">
-        <v>0.07424986764025877</v>
+        <v>0.8071180580365189</v>
       </c>
       <c r="F23">
-        <v>-0.1407099710554208</v>
+        <v>2.801504013289929</v>
       </c>
       <c r="G23">
-        <v>0.5644171059945294</v>
+        <v>-3.896874566756854</v>
       </c>
       <c r="H23">
-        <v>-0.4385896820909304</v>
+        <v>-0.5978134178869381</v>
       </c>
       <c r="I23">
-        <v>0.6625945156589192</v>
+        <v>0.6024869780424345</v>
       </c>
       <c r="J23">
-        <v>0.861971273868569</v>
+        <v>0.6023281544103263</v>
       </c>
       <c r="K23">
-        <v>2.862236025500037</v>
+        <v>0.2023828686616996</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1220,34 +1355,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0.5421158408637293</v>
+        <v>-0.4538030212526126</v>
       </c>
       <c r="C24">
-        <v>1.017755525539201</v>
+        <v>0.5275511807823752</v>
       </c>
       <c r="D24">
-        <v>0.07106968336319208</v>
+        <v>0.7851314641845762</v>
       </c>
       <c r="E24">
-        <v>-0.1550739524470776</v>
+        <v>2.771345045027173</v>
       </c>
       <c r="F24">
-        <v>0.5565201560479516</v>
+        <v>-3.92253341300482</v>
       </c>
       <c r="G24">
-        <v>-0.449021243665465</v>
+        <v>-0.6241124869712465</v>
       </c>
       <c r="H24">
-        <v>0.6534831868870469</v>
+        <v>0.5765428722501981</v>
       </c>
       <c r="I24">
-        <v>0.8523031187254658</v>
+        <v>0.5763638486274983</v>
       </c>
       <c r="J24">
-        <v>2.852842110180505</v>
+        <v>0.1764344108539795</v>
       </c>
       <c r="K24">
-        <v>-1.977812104138189</v>
+        <v>-0.2235857352533419</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1255,34 +1390,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>1.063872997753019</v>
+        <v>0.4825954437061892</v>
       </c>
       <c r="C25">
-        <v>-0.03864060154275105</v>
+        <v>0.8422163279440883</v>
       </c>
       <c r="D25">
-        <v>-0.1534654863372861</v>
+        <v>2.763194615223159</v>
       </c>
       <c r="E25">
-        <v>0.5202529420301703</v>
+        <v>-3.914240526370113</v>
       </c>
       <c r="F25">
-        <v>-0.4632176986289828</v>
+        <v>-0.624475258152667</v>
       </c>
       <c r="G25">
-        <v>0.6306775631405662</v>
+        <v>0.5786616893519901</v>
       </c>
       <c r="H25">
-        <v>0.8340051296440686</v>
+        <v>0.5773239839741364</v>
       </c>
       <c r="I25">
-        <v>2.832648176017013</v>
+        <v>0.1777552664023035</v>
       </c>
       <c r="J25">
-        <v>-1.997068922497231</v>
+        <v>-0.2224207781847512</v>
       </c>
       <c r="K25">
-        <v>-0.4008668117901249</v>
+        <v>1.377638071557969</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1290,34 +1425,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0.09215781959279518</v>
+        <v>0.8568175942150587</v>
       </c>
       <c r="C26">
-        <v>-0.3602050024581249</v>
+        <v>2.700935263219752</v>
       </c>
       <c r="D26">
-        <v>0.5457693258284683</v>
+        <v>-3.928093735801512</v>
       </c>
       <c r="E26">
-        <v>-0.5183416335743248</v>
+        <v>-0.6473317486110013</v>
       </c>
       <c r="F26">
-        <v>0.6223513901053465</v>
+        <v>0.5605056248029899</v>
       </c>
       <c r="G26">
-        <v>0.8073657180512072</v>
+        <v>0.5581963294872259</v>
       </c>
       <c r="H26">
-        <v>2.81566464836704</v>
+        <v>0.1590748418641528</v>
       </c>
       <c r="I26">
-        <v>-2.018104768559827</v>
+        <v>-0.2411979729656273</v>
       </c>
       <c r="J26">
-        <v>-0.4198802677996269</v>
+        <v>1.358901485695842</v>
       </c>
       <c r="K26">
-        <v>-1.183807135702884</v>
+        <v>0.5588695609171204</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1325,34 +1460,34 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-0.3559975784643882</v>
+        <v>2.76213102299326</v>
       </c>
       <c r="C27">
-        <v>0.4946022604655281</v>
+        <v>-4.005401035764107</v>
       </c>
       <c r="D27">
-        <v>-0.5467166098458338</v>
+        <v>-0.652100071634148</v>
       </c>
       <c r="E27">
-        <v>0.5803573538240896</v>
+        <v>0.5406012468058534</v>
       </c>
       <c r="F27">
-        <v>0.7709913496429603</v>
+        <v>0.5444691520463242</v>
       </c>
       <c r="G27">
-        <v>2.77609718777923</v>
+        <v>0.1437833608457404</v>
       </c>
       <c r="H27">
-        <v>-2.056301130063374</v>
+        <v>-0.2559274560170242</v>
       </c>
       <c r="I27">
-        <v>-0.4588127049439755</v>
+        <v>1.344012148134736</v>
       </c>
       <c r="J27">
-        <v>-1.222411828955345</v>
+        <v>0.5440342654542963</v>
       </c>
       <c r="K27">
-        <v>0.6190442473259902</v>
+        <v>0.04402912892250416</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1360,34 +1495,34 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0.4897278292104114</v>
+        <v>-4.16720131851478</v>
       </c>
       <c r="C28">
-        <v>-0.4673483946780108</v>
+        <v>-0.9908756397905542</v>
       </c>
       <c r="D28">
-        <v>0.5985937524693148</v>
+        <v>0.4483508879497611</v>
       </c>
       <c r="E28">
-        <v>0.8071180580365189</v>
+        <v>0.4429159199140756</v>
       </c>
       <c r="F28">
-        <v>2.801504013289929</v>
+        <v>0.06567852866874352</v>
       </c>
       <c r="G28">
-        <v>-2.027276814886084</v>
+        <v>-0.3342321928212778</v>
       </c>
       <c r="H28">
-        <v>-0.4317184346163718</v>
+        <v>1.267949932679049</v>
       </c>
       <c r="I28">
-        <v>-1.194603702228485</v>
+        <v>0.4680169331768144</v>
       </c>
       <c r="J28">
-        <v>0.6464979332203015</v>
+        <v>-0.03177231306550798</v>
       </c>
       <c r="K28">
-        <v>-0.4877582350519307</v>
+        <v>-0.2317602518072034</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1395,34 +1530,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.4538030212526126</v>
+        <v>-1.765731449023777</v>
       </c>
       <c r="C29">
-        <v>0.5275511807823752</v>
+        <v>0.8279118747877362</v>
       </c>
       <c r="D29">
-        <v>0.7851314641845762</v>
+        <v>0.4948222956291238</v>
       </c>
       <c r="E29">
-        <v>2.771345045027173</v>
+        <v>0.1715522545121954</v>
       </c>
       <c r="F29">
-        <v>-2.05293566113405</v>
+        <v>-0.2459333170361974</v>
       </c>
       <c r="G29">
-        <v>-0.4580175037006803</v>
+        <v>1.358038397166869</v>
       </c>
       <c r="H29">
-        <v>-1.220547808020721</v>
+        <v>0.5571371494475301</v>
       </c>
       <c r="I29">
-        <v>0.6205336274374735</v>
+        <v>0.05734159529301865</v>
       </c>
       <c r="J29">
-        <v>-0.5137066928596509</v>
+        <v>-0.1427047784320287</v>
       </c>
       <c r="K29">
-        <v>0.06739567121076799</v>
+        <v>-0.7426942599443177</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1430,34 +1565,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.4825954437061892</v>
+        <v>0.1053707454671549</v>
       </c>
       <c r="C30">
-        <v>0.8422163279440883</v>
+        <v>0.6677897145534073</v>
       </c>
       <c r="D30">
-        <v>2.763194615223159</v>
+        <v>0.2486220349200467</v>
       </c>
       <c r="E30">
-        <v>-2.044642774499343</v>
+        <v>-0.201501929058311</v>
       </c>
       <c r="F30">
-        <v>-0.4583802748821008</v>
+        <v>1.411493209632637</v>
       </c>
       <c r="G30">
-        <v>-1.218428990918929</v>
+        <v>0.6134514907401223</v>
       </c>
       <c r="H30">
-        <v>0.6214937627841116</v>
+        <v>0.1117596000242623</v>
       </c>
       <c r="I30">
-        <v>-0.5123858373113268</v>
+        <v>-0.08805368385871565</v>
       </c>
       <c r="J30">
-        <v>0.0685606282793587</v>
+        <v>-0.6879315856656377</v>
       </c>
       <c r="K30">
-        <v>0.3729296950345338</v>
+        <v>0.6120232190578958</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1465,34 +1600,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0.8568175942150587</v>
+        <v>0.7086676194947806</v>
       </c>
       <c r="C31">
-        <v>2.700935263219752</v>
+        <v>0.3844844710576326</v>
       </c>
       <c r="D31">
-        <v>-2.058495983930742</v>
+        <v>-0.1965963223787953</v>
       </c>
       <c r="E31">
-        <v>-0.481236765340435</v>
+        <v>1.441243274247022</v>
       </c>
       <c r="F31">
-        <v>-1.236585055467929</v>
+        <v>0.6702122303320207</v>
       </c>
       <c r="G31">
-        <v>0.6023661082972011</v>
+        <v>0.1530072196726784</v>
       </c>
       <c r="H31">
-        <v>-0.5310662618494776</v>
+        <v>-0.04825491243743356</v>
       </c>
       <c r="I31">
-        <v>0.04978343349848258</v>
+        <v>-0.6440335937636584</v>
       </c>
       <c r="J31">
-        <v>0.3541931091724064</v>
+        <v>0.6549715305178575</v>
       </c>
       <c r="K31">
-        <v>0.1969477697664939</v>
+        <v>-0.1456696867325665</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1500,34 +1635,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>2.76213102299326</v>
+        <v>0.6447158032453963</v>
       </c>
       <c r="C32">
-        <v>-2.135803283893338</v>
+        <v>-0.1234092600983615</v>
       </c>
       <c r="D32">
-        <v>-0.4860050883635817</v>
+        <v>1.319172296966225</v>
       </c>
       <c r="E32">
-        <v>-1.256489433465066</v>
+        <v>0.6491948742202662</v>
       </c>
       <c r="F32">
-        <v>0.5886389308562994</v>
+        <v>0.1535573247034168</v>
       </c>
       <c r="G32">
-        <v>-0.54635774286789</v>
+        <v>-0.07906316552673573</v>
       </c>
       <c r="H32">
-        <v>0.03505395044708565</v>
+        <v>-0.6716498456297826</v>
       </c>
       <c r="I32">
-        <v>0.3393037716113005</v>
+        <v>0.6343250766711968</v>
       </c>
       <c r="J32">
-        <v>0.1821124743036699</v>
+        <v>-0.169021585216537</v>
       </c>
       <c r="K32">
-        <v>-0.03085504341059452</v>
+        <v>0.03040040492255015</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1535,34 +1670,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-2.478996240411237</v>
+        <v>0.0371680401435531</v>
       </c>
       <c r="C33">
-        <v>-0.3761543761478888</v>
+        <v>1.44032005313856</v>
       </c>
       <c r="D33">
-        <v>-1.29067506640155</v>
+        <v>0.5783927466243013</v>
       </c>
       <c r="E33">
-        <v>0.5882851558929439</v>
+        <v>0.1404708077738458</v>
       </c>
       <c r="F33">
-        <v>-0.5562262383989274</v>
+        <v>-0.05852225215382884</v>
       </c>
       <c r="G33">
-        <v>0.02755199372285969</v>
+        <v>-0.6738927158292167</v>
       </c>
       <c r="H33">
-        <v>0.3311584183809878</v>
+        <v>0.6293523446164029</v>
       </c>
       <c r="I33">
-        <v>0.1741299902109673</v>
+        <v>-0.1676355259041578</v>
       </c>
       <c r="J33">
-        <v>-0.0388811980498503</v>
+        <v>0.03088889270289182</v>
       </c>
       <c r="K33">
-        <v>-0.7516665100642587</v>
+        <v>-0.26951070357634</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1570,34 +1705,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.8987273204380259</v>
+        <v>1.349280772589299</v>
       </c>
       <c r="C34">
-        <v>-1.123548110495059</v>
+        <v>0.5782905001535521</v>
       </c>
       <c r="D34">
-        <v>0.681818131449096</v>
+        <v>0.1523429349281432</v>
       </c>
       <c r="E34">
-        <v>-0.4961911319521482</v>
+        <v>-0.07517580508926842</v>
       </c>
       <c r="F34">
-        <v>0.09833037045002985</v>
+        <v>-0.6924086988969802</v>
       </c>
       <c r="G34">
-        <v>0.4038021492286314</v>
+        <v>0.6207174960088595</v>
       </c>
       <c r="H34">
-        <v>0.2450336784278599</v>
+        <v>-0.1769178697094459</v>
       </c>
       <c r="I34">
-        <v>0.03231316115779607</v>
+        <v>0.01825448251309522</v>
       </c>
       <c r="J34">
-        <v>-0.6803902196498471</v>
+        <v>-0.2813290647448994</v>
       </c>
       <c r="K34">
-        <v>-0.3648144733125143</v>
+        <v>0.1201316253568541</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1605,31 +1740,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-1.479105228774069</v>
+        <v>0.9007752005608911</v>
       </c>
       <c r="C35">
-        <v>0.7942814077573761</v>
+        <v>0.4872349379103772</v>
       </c>
       <c r="D35">
-        <v>-0.4016624139957087</v>
+        <v>-0.2776277501685884</v>
       </c>
       <c r="E35">
-        <v>0.177297247470589</v>
+        <v>-0.7744509334885725</v>
       </c>
       <c r="F35">
-        <v>0.485335005071388</v>
+        <v>0.6825935182826313</v>
       </c>
       <c r="G35">
-        <v>0.3270651683200281</v>
+        <v>-0.186844184539563</v>
       </c>
       <c r="H35">
-        <v>0.1142479365170799</v>
+        <v>-0.02106412776675788</v>
       </c>
       <c r="I35">
-        <v>-0.5985432180681087</v>
+        <v>-0.2908918233962182</v>
       </c>
       <c r="J35">
-        <v>-0.2829319857716117</v>
+        <v>0.1130796333891403</v>
+      </c>
+      <c r="K35">
+        <v>0.9024940084519204</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1637,28 +1775,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0.9814866881058326</v>
+        <v>0.3909811857727292</v>
       </c>
       <c r="C36">
-        <v>-0.3888370988076722</v>
+        <v>0.04997678071393069</v>
       </c>
       <c r="D36">
-        <v>0.05125433031192864</v>
+        <v>-0.843476597187774</v>
       </c>
       <c r="E36">
-        <v>0.4388508538973153</v>
+        <v>0.56572471790764</v>
       </c>
       <c r="F36">
-        <v>0.2895771855544552</v>
+        <v>-0.1500973475462195</v>
       </c>
       <c r="G36">
-        <v>0.05766577080159978</v>
+        <v>-0.006229391903661431</v>
       </c>
       <c r="H36">
-        <v>-0.6520195764776368</v>
+        <v>-0.3254455213045029</v>
       </c>
       <c r="I36">
-        <v>-0.3333157475800774</v>
+        <v>0.09862698552918518</v>
+      </c>
+      <c r="J36">
+        <v>0.9007759350417793</v>
+      </c>
+      <c r="K36">
+        <v>1.191663124810563</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1666,25 +1810,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-0.3855606592910783</v>
+        <v>0.2288853845596842</v>
       </c>
       <c r="C37">
-        <v>-0.01029774420611503</v>
+        <v>-0.7470731987219259</v>
       </c>
       <c r="D37">
-        <v>0.4504949010504506</v>
+        <v>0.4798634659626628</v>
       </c>
       <c r="E37">
-        <v>0.3116971493361456</v>
+        <v>-0.1707044955153652</v>
       </c>
       <c r="F37">
-        <v>0.05115057097547097</v>
+        <v>0.02363466195007262</v>
       </c>
       <c r="G37">
-        <v>-0.6550832936058218</v>
+        <v>-0.3284008932028954</v>
       </c>
       <c r="H37">
-        <v>-0.3279671385985169</v>
+        <v>0.08465100877485654</v>
+      </c>
+      <c r="I37">
+        <v>0.9004210643056894</v>
+      </c>
+      <c r="J37">
+        <v>1.19242688706885</v>
+      </c>
+      <c r="K37">
+        <v>-0.9114959617321756</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1692,22 +1845,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0.1816263880457463</v>
+        <v>-0.7443706475105949</v>
       </c>
       <c r="C38">
-        <v>0.4099779503549726</v>
+        <v>0.5515738127053337</v>
       </c>
       <c r="D38">
-        <v>0.2123843002790115</v>
+        <v>-0.1940569436082997</v>
       </c>
       <c r="E38">
-        <v>0.03273204926589856</v>
+        <v>-0.004969194278935392</v>
       </c>
       <c r="F38">
-        <v>-0.6748267465551727</v>
+        <v>-0.3226041864175472</v>
       </c>
       <c r="G38">
-        <v>-0.3709754535023949</v>
+        <v>0.08546172757411828</v>
+      </c>
+      <c r="H38">
+        <v>0.8901482666072394</v>
+      </c>
+      <c r="I38">
+        <v>1.186092391396881</v>
+      </c>
+      <c r="J38">
+        <v>-0.9147164431908503</v>
+      </c>
+      <c r="K38">
+        <v>0.6869696375559339</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1715,19 +1880,31 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0.4541237849298102</v>
+        <v>0.2327068052576605</v>
       </c>
       <c r="C39">
-        <v>0.3884184499810635</v>
+        <v>-0.4165329584102027</v>
       </c>
       <c r="D39">
-        <v>0.007581835503234789</v>
+        <v>0.1676424714550495</v>
       </c>
       <c r="E39">
-        <v>-0.6973232740534967</v>
+        <v>-0.2735493910099648</v>
       </c>
       <c r="F39">
-        <v>-0.3289875462951342</v>
+        <v>0.00680061277215567</v>
+      </c>
+      <c r="G39">
+        <v>0.8875493484626673</v>
+      </c>
+      <c r="H39">
+        <v>1.216930019265863</v>
+      </c>
+      <c r="I39">
+        <v>-0.9208796486859766</v>
+      </c>
+      <c r="J39">
+        <v>0.6757606463488156</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1735,16 +1912,28 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0.7581925446067344</v>
+        <v>-0.4349251492717611</v>
       </c>
       <c r="C40">
-        <v>-0.01301399418345174</v>
+        <v>0.2748338964452498</v>
       </c>
       <c r="D40">
-        <v>-0.8891548021019874</v>
+        <v>-0.276900812503269</v>
       </c>
       <c r="E40">
-        <v>-0.3436675936514596</v>
+        <v>-0.0229088648918345</v>
+      </c>
+      <c r="F40">
+        <v>0.9068469189037078</v>
+      </c>
+      <c r="G40">
+        <v>1.236371632660665</v>
+      </c>
+      <c r="H40">
+        <v>-0.9207565673254164</v>
+      </c>
+      <c r="I40">
+        <v>0.6798611419058711</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1752,13 +1941,25 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0.2145231581191939</v>
+        <v>0.1477315643901598</v>
       </c>
       <c r="C41">
-        <v>-0.7403884680193036</v>
+        <v>-0.4046885644149391</v>
       </c>
       <c r="D41">
-        <v>-0.4504736691203182</v>
+        <v>0.06821962286979502</v>
+      </c>
+      <c r="E41">
+        <v>0.9478407246340841</v>
+      </c>
+      <c r="F41">
+        <v>1.203609237214795</v>
+      </c>
+      <c r="G41">
+        <v>-0.917027329149423</v>
+      </c>
+      <c r="H41">
+        <v>0.7039715063778522</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1766,10 +1967,22 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>-0.8242708640601319</v>
+        <v>-0.4423875156511647</v>
       </c>
       <c r="C42">
-        <v>-0.6237594723331052</v>
+        <v>0.1367266703841232</v>
+      </c>
+      <c r="D42">
+        <v>0.9513437235974342</v>
+      </c>
+      <c r="E42">
+        <v>1.181647871789711</v>
+      </c>
+      <c r="F42">
+        <v>-0.908880481467129</v>
+      </c>
+      <c r="G42">
+        <v>0.7149973727107466</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1777,57 +1990,74 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.5183226370454127</v>
+        <v>-0.07129769042629969</v>
+      </c>
+      <c r="C43">
+        <v>0.8259044038725577</v>
+      </c>
+      <c r="D43">
+        <v>1.282921648464562</v>
+      </c>
+      <c r="E43">
+        <v>-0.8859805558761672</v>
+      </c>
+      <c r="F43">
+        <v>0.6692393633231107</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B44">
+        <v>0.8302680977631749</v>
+      </c>
+      <c r="C44">
+        <v>1.23803164275674</v>
+      </c>
+      <c r="D44">
+        <v>-0.8980383963319282</v>
+      </c>
+      <c r="E44">
+        <v>0.6689809815145862</v>
+      </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B45">
+        <v>1.526450297927719</v>
+      </c>
+      <c r="C45">
+        <v>-0.6681494038440146</v>
+      </c>
+      <c r="D45">
+        <v>0.4462523474104905</v>
+      </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B46">
+        <v>-0.3625591223212198</v>
+      </c>
+      <c r="C46">
+        <v>0.9710069146292677</v>
+      </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="B47">
+        <v>0.8798435331191272</v>
+      </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/TRDBAL/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
+++ b/3_Component_Results/TRDBAL/Data/naive_err/AR2_50_9_qoq_errors_first_eval.xlsx
@@ -605,15 +605,6 @@
       <c r="H2">
         <v>0.4008956098327321</v>
       </c>
-      <c r="I2">
-        <v>-0.953091131074053</v>
-      </c>
-      <c r="J2">
-        <v>-0.7199170215585443</v>
-      </c>
-      <c r="K2">
-        <v>-0.3401820200458039</v>
-      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
@@ -634,21 +625,6 @@
       <c r="F3">
         <v>0.4700400313155295</v>
       </c>
-      <c r="G3">
-        <v>-0.8493078637071944</v>
-      </c>
-      <c r="H3">
-        <v>-0.6431110801374796</v>
-      </c>
-      <c r="I3">
-        <v>-0.2500159038824407</v>
-      </c>
-      <c r="J3">
-        <v>0.7527701023327219</v>
-      </c>
-      <c r="K3">
-        <v>-0.04976115771170253</v>
-      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
@@ -675,15 +651,6 @@
       <c r="H4">
         <v>0.7904542997742127</v>
       </c>
-      <c r="I4">
-        <v>-0.006683052599829764</v>
-      </c>
-      <c r="J4">
-        <v>-0.2098696834168884</v>
-      </c>
-      <c r="K4">
-        <v>0.4912426384382692</v>
-      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
@@ -704,21 +671,6 @@
       <c r="F5">
         <v>0.7703656759245198</v>
       </c>
-      <c r="G5">
-        <v>-0.02917704649458497</v>
-      </c>
-      <c r="H5">
-        <v>-0.2296287999191447</v>
-      </c>
-      <c r="I5">
-        <v>0.470526322484588</v>
-      </c>
-      <c r="J5">
-        <v>-0.629598750280044</v>
-      </c>
-      <c r="K5">
-        <v>0.9704511454919744</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
@@ -745,15 +697,6 @@
       <c r="H6">
         <v>-0.632008739454109</v>
       </c>
-      <c r="I6">
-        <v>0.98530671707058</v>
-      </c>
-      <c r="J6">
-        <v>0.07491434640029331</v>
-      </c>
-      <c r="K6">
-        <v>-0.1193939658960854</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
@@ -774,21 +717,6 @@
       <c r="F7">
         <v>-0.5832845717319484</v>
       </c>
-      <c r="G7">
-        <v>1.010619986738057</v>
-      </c>
-      <c r="H7">
-        <v>0.1112816078778656</v>
-      </c>
-      <c r="I7">
-        <v>-0.0903204442476481</v>
-      </c>
-      <c r="J7">
-        <v>0.4099866297234787</v>
-      </c>
-      <c r="K7">
-        <v>0.309553974508877</v>
-      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
@@ -815,15 +743,6 @@
       <c r="H8">
         <v>0.3659968533374377</v>
       </c>
-      <c r="I8">
-        <v>0.2704047000264007</v>
-      </c>
-      <c r="J8">
-        <v>-0.5316619611123784</v>
-      </c>
-      <c r="K8">
-        <v>0.4695853533604821</v>
-      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
@@ -844,21 +763,6 @@
       <c r="F9">
         <v>0.366934135402217</v>
       </c>
-      <c r="G9">
-        <v>0.2475888057088644</v>
-      </c>
-      <c r="H9">
-        <v>-0.5407573885164876</v>
-      </c>
-      <c r="I9">
-        <v>0.4535905252086884</v>
-      </c>
-      <c r="J9">
-        <v>0.5568652954842747</v>
-      </c>
-      <c r="K9">
-        <v>0.155226306859125</v>
-      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
@@ -885,15 +789,6 @@
       <c r="H10">
         <v>0.5571509000809522</v>
       </c>
-      <c r="I10">
-        <v>0.1372353195623577</v>
-      </c>
-      <c r="J10">
-        <v>-0.4510296507262559</v>
-      </c>
-      <c r="K10">
-        <v>0.3425211963472024</v>
-      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
@@ -914,21 +809,6 @@
       <c r="F11">
         <v>0.5539436190835109</v>
       </c>
-      <c r="G11">
-        <v>0.1581417960833264</v>
-      </c>
-      <c r="H11">
-        <v>-0.4443167004312605</v>
-      </c>
-      <c r="I11">
-        <v>0.3567870985253624</v>
-      </c>
-      <c r="J11">
-        <v>0.2561717080058837</v>
-      </c>
-      <c r="K11">
-        <v>-0.3435409392614525</v>
-      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
@@ -955,15 +835,6 @@
       <c r="H12">
         <v>0.2480595402774528</v>
       </c>
-      <c r="I12">
-        <v>-0.3524896646938318</v>
-      </c>
-      <c r="J12">
-        <v>0.4479737871146207</v>
-      </c>
-      <c r="K12">
-        <v>-0.3521851538735195</v>
-      </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
@@ -996,9 +867,6 @@
       <c r="J13">
         <v>-0.4465441052139966</v>
       </c>
-      <c r="K13">
-        <v>0.1523400882759935</v>
-      </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1025,15 +893,6 @@
       <c r="H14">
         <v>-0.468560665185858</v>
       </c>
-      <c r="I14">
-        <v>0.1319465141156694</v>
-      </c>
-      <c r="J14">
-        <v>0.4318080781701474</v>
-      </c>
-      <c r="K14">
-        <v>1.031916783421098</v>
-      </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -1066,9 +925,6 @@
       <c r="J15">
         <v>0.03737679439413787</v>
       </c>
-      <c r="K15">
-        <v>-0.1631205526703856</v>
-      </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
@@ -1095,15 +951,6 @@
       <c r="H16">
         <v>0.03694596653878387</v>
       </c>
-      <c r="I16">
-        <v>-0.161348298305946</v>
-      </c>
-      <c r="J16">
-        <v>0.5378196726653369</v>
-      </c>
-      <c r="K16">
-        <v>-0.4618068258185914</v>
-      </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
@@ -1136,9 +983,6 @@
       <c r="J17">
         <v>0.6440139177096221</v>
       </c>
-      <c r="K17">
-        <v>0.8446633782493814</v>
-      </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
@@ -1168,12 +1012,6 @@
       <c r="I18">
         <v>0.6625945156589192</v>
       </c>
-      <c r="J18">
-        <v>0.861971273868569</v>
-      </c>
-      <c r="K18">
-        <v>2.862236025500037</v>
-      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
@@ -1200,15 +1038,6 @@
       <c r="H19">
         <v>0.6534831868870469</v>
       </c>
-      <c r="I19">
-        <v>0.8523031187254658</v>
-      </c>
-      <c r="J19">
-        <v>2.852842110180505</v>
-      </c>
-      <c r="K19">
-        <v>-3.847409856008959</v>
-      </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
@@ -1276,9 +1105,6 @@
       <c r="J21">
         <v>-0.5859752510701932</v>
       </c>
-      <c r="K21">
-        <v>0.6132835445680351</v>
-      </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
@@ -1308,12 +1134,6 @@
       <c r="I22">
         <v>-0.6249076882145418</v>
       </c>
-      <c r="J22">
-        <v>0.5746788513155737</v>
-      </c>
-      <c r="K22">
-        <v>0.574874468516015</v>
-      </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
@@ -1340,15 +1160,6 @@
       <c r="H23">
         <v>-0.5978134178869381</v>
       </c>
-      <c r="I23">
-        <v>0.6024869780424345</v>
-      </c>
-      <c r="J23">
-        <v>0.6023281544103263</v>
-      </c>
-      <c r="K23">
-        <v>0.2023828686616996</v>
-      </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -1416,9 +1227,6 @@
       <c r="J25">
         <v>-0.2224207781847512</v>
       </c>
-      <c r="K25">
-        <v>1.377638071557969</v>
-      </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
@@ -1448,12 +1256,6 @@
       <c r="I26">
         <v>-0.2411979729656273</v>
       </c>
-      <c r="J26">
-        <v>1.358901485695842</v>
-      </c>
-      <c r="K26">
-        <v>0.5588695609171204</v>
-      </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
@@ -1480,15 +1282,6 @@
       <c r="H27">
         <v>-0.2559274560170242</v>
       </c>
-      <c r="I27">
-        <v>1.344012148134736</v>
-      </c>
-      <c r="J27">
-        <v>0.5440342654542963</v>
-      </c>
-      <c r="K27">
-        <v>0.04402912892250416</v>
-      </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
@@ -1556,9 +1349,6 @@
       <c r="J29">
         <v>-0.1427047784320287</v>
       </c>
-      <c r="K29">
-        <v>-0.7426942599443177</v>
-      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
@@ -1588,12 +1378,6 @@
       <c r="I30">
         <v>-0.08805368385871565</v>
       </c>
-      <c r="J30">
-        <v>-0.6879315856656377</v>
-      </c>
-      <c r="K30">
-        <v>0.6120232190578958</v>
-      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -1620,15 +1404,6 @@
       <c r="H31">
         <v>-0.04825491243743356</v>
       </c>
-      <c r="I31">
-        <v>-0.6440335937636584</v>
-      </c>
-      <c r="J31">
-        <v>0.6549715305178575</v>
-      </c>
-      <c r="K31">
-        <v>-0.1456696867325665</v>
-      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
@@ -1696,9 +1471,6 @@
       <c r="J33">
         <v>0.03088889270289182</v>
       </c>
-      <c r="K33">
-        <v>-0.26951070357634</v>
-      </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
@@ -1728,12 +1500,6 @@
       <c r="I34">
         <v>0.01825448251309522</v>
       </c>
-      <c r="J34">
-        <v>-0.2813290647448994</v>
-      </c>
-      <c r="K34">
-        <v>0.1201316253568541</v>
-      </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
@@ -1760,15 +1526,6 @@
       <c r="H35">
         <v>-0.02106412776675788</v>
       </c>
-      <c r="I35">
-        <v>-0.2908918233962182</v>
-      </c>
-      <c r="J35">
-        <v>0.1130796333891403</v>
-      </c>
-      <c r="K35">
-        <v>0.9024940084519204</v>
-      </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
@@ -1836,9 +1593,6 @@
       <c r="J37">
         <v>1.19242688706885</v>
       </c>
-      <c r="K37">
-        <v>-0.9114959617321756</v>
-      </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
@@ -1868,12 +1622,6 @@
       <c r="I38">
         <v>1.186092391396881</v>
       </c>
-      <c r="J38">
-        <v>-0.9147164431908503</v>
-      </c>
-      <c r="K38">
-        <v>0.6869696375559339</v>
-      </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
@@ -1899,12 +1647,6 @@
       </c>
       <c r="H39">
         <v>1.216930019265863</v>
-      </c>
-      <c r="I39">
-        <v>-0.9208796486859766</v>
-      </c>
-      <c r="J39">
-        <v>0.6757606463488156</v>
       </c>
     </row>
     <row r="40" spans="1:11">
